--- a/data/add-ons/add_factors_test_copy.xlsx
+++ b/data/add-ons/add_factors_test_copy.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scampbell\Documents\GitHub\Fiscal-Impact-Measure\data\add-ons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39636A98-4066-4D2B-96DE-8846138E9CC5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453095C7-C18F-4C0E-8243-56213B50DFE7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BAFE3F49-3B7E-4387-938E-5F3D7AC6DAFE}"/>
   </bookViews>
@@ -2906,7 +2906,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="395">
+  <cellXfs count="394">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3502,6 +3502,22 @@
     <xf numFmtId="43" fontId="0" fillId="9" borderId="35" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="43" fontId="0" fillId="9" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="170" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="25" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="27" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="25" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="24" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3577,21 +3593,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3613,35 +3614,33 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1"/>
     <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="25" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="0" fillId="16" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="169" fontId="27" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="25" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="23" fillId="16" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="43" fontId="0" fillId="16" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="16" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="11">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -4153,10 +4152,10 @@
   <dimension ref="A1:AQ121"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="C23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="N47" sqref="N47"/>
+      <selection pane="bottomRight" activeCell="O107" sqref="O107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4179,86 +4178,86 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="19" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="353" t="s">
         <v>364</v>
       </c>
-      <c r="B1" s="341"/>
+      <c r="B1" s="353"/>
       <c r="C1" s="268"/>
       <c r="D1" s="268"/>
       <c r="E1" s="35"/>
       <c r="N1" t="s">
         <v>366</v>
       </c>
-      <c r="AC1" s="347" t="s">
+      <c r="AC1" s="359" t="s">
         <v>242</v>
       </c>
-      <c r="AD1" s="347"/>
-      <c r="AE1" s="345" t="s">
+      <c r="AD1" s="359"/>
+      <c r="AE1" s="357" t="s">
         <v>240</v>
       </c>
-      <c r="AF1" s="346"/>
+      <c r="AF1" s="358"/>
       <c r="AG1" t="s">
         <v>27</v>
       </c>
-      <c r="AI1" s="343" t="s">
+      <c r="AI1" s="355" t="s">
         <v>273</v>
       </c>
-      <c r="AJ1" s="343"/>
-      <c r="AK1" s="343"/>
-      <c r="AL1" s="343"/>
-      <c r="AM1" s="342" t="s">
+      <c r="AJ1" s="355"/>
+      <c r="AK1" s="355"/>
+      <c r="AL1" s="355"/>
+      <c r="AM1" s="354" t="s">
         <v>271</v>
       </c>
-      <c r="AN1" s="342"/>
-      <c r="AO1" s="342"/>
-      <c r="AP1" s="342"/>
+      <c r="AN1" s="354"/>
+      <c r="AO1" s="354"/>
+      <c r="AP1" s="354"/>
     </row>
     <row r="2" spans="1:43" ht="23" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="F2" s="340" t="s">
+      <c r="F2" s="352" t="s">
         <v>20</v>
       </c>
-      <c r="G2" s="340"/>
-      <c r="H2" s="340"/>
-      <c r="I2" s="340"/>
-      <c r="J2" s="340" t="s">
+      <c r="G2" s="352"/>
+      <c r="H2" s="352"/>
+      <c r="I2" s="352"/>
+      <c r="J2" s="352" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="340"/>
-      <c r="L2" s="340"/>
-      <c r="M2" s="340"/>
-      <c r="N2" s="340" t="s">
+      <c r="K2" s="352"/>
+      <c r="L2" s="352"/>
+      <c r="M2" s="352"/>
+      <c r="N2" s="352" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="340"/>
-      <c r="P2" s="340"/>
-      <c r="Q2" s="340"/>
-      <c r="R2" s="340" t="s">
+      <c r="O2" s="352"/>
+      <c r="P2" s="352"/>
+      <c r="Q2" s="352"/>
+      <c r="R2" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="340"/>
-      <c r="T2" s="340"/>
-      <c r="U2" s="340"/>
-      <c r="V2" s="340" t="s">
+      <c r="S2" s="352"/>
+      <c r="T2" s="352"/>
+      <c r="U2" s="352"/>
+      <c r="V2" s="352" t="s">
         <v>260</v>
       </c>
-      <c r="W2" s="340"/>
-      <c r="X2" s="340"/>
-      <c r="Y2" s="340"/>
+      <c r="W2" s="352"/>
+      <c r="X2" s="352"/>
+      <c r="Y2" s="352"/>
       <c r="Z2" s="221"/>
       <c r="AA2" s="283"/>
       <c r="AB2" s="221"/>
-      <c r="AC2" s="340" t="s">
+      <c r="AC2" s="352" t="s">
         <v>101</v>
       </c>
-      <c r="AD2" s="340"/>
-      <c r="AE2" s="340"/>
-      <c r="AF2" s="340"/>
-      <c r="AG2" s="340"/>
-      <c r="AH2" s="340"/>
-      <c r="AI2" s="340"/>
-      <c r="AJ2" s="340"/>
-      <c r="AK2" s="340"/>
-      <c r="AL2" s="344"/>
+      <c r="AD2" s="352"/>
+      <c r="AE2" s="352"/>
+      <c r="AF2" s="352"/>
+      <c r="AG2" s="352"/>
+      <c r="AH2" s="352"/>
+      <c r="AI2" s="352"/>
+      <c r="AJ2" s="352"/>
+      <c r="AK2" s="352"/>
+      <c r="AL2" s="356"/>
     </row>
     <row r="3" spans="1:43" x14ac:dyDescent="0.35">
       <c r="F3" s="197" t="s">
@@ -4288,7 +4287,7 @@
       <c r="N3" s="301" t="s">
         <v>5</v>
       </c>
-      <c r="O3" s="382" t="s">
+      <c r="O3" s="339" t="s">
         <v>6</v>
       </c>
       <c r="P3" t="s">
@@ -4365,10 +4364,10 @@
       </c>
     </row>
     <row r="4" spans="1:43" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A4" s="339" t="s">
+      <c r="A4" s="351" t="s">
         <v>256</v>
       </c>
-      <c r="B4" s="339"/>
+      <c r="B4" s="351"/>
       <c r="C4" s="268"/>
       <c r="D4" s="268"/>
       <c r="F4" s="197"/>
@@ -4380,7 +4379,7 @@
       <c r="L4" s="197"/>
       <c r="M4" s="301"/>
       <c r="N4" s="301"/>
-      <c r="O4" s="382"/>
+      <c r="O4" s="339"/>
       <c r="AC4" s="190"/>
       <c r="AD4" s="317"/>
       <c r="AE4" s="178"/>
@@ -4772,7 +4771,7 @@
       <c r="L9" s="197"/>
       <c r="M9" s="301"/>
       <c r="N9" s="301"/>
-      <c r="O9" s="382"/>
+      <c r="O9" s="339"/>
       <c r="AC9" s="190"/>
       <c r="AD9" s="317"/>
       <c r="AE9" s="178"/>
@@ -4797,7 +4796,7 @@
       <c r="L10" s="197"/>
       <c r="M10" s="301"/>
       <c r="N10" s="301"/>
-      <c r="O10" s="382"/>
+      <c r="O10" s="339"/>
       <c r="AD10" s="95"/>
       <c r="AE10" s="146"/>
       <c r="AI10" s="146"/>
@@ -4842,7 +4841,7 @@
         <f t="shared" ref="N11" si="10">N12+N15+N18</f>
         <v>3333.1</v>
       </c>
-      <c r="O11" s="383">
+      <c r="O11" s="340">
         <f t="shared" si="9"/>
         <v>3333.7</v>
       </c>
@@ -5238,7 +5237,7 @@
       <c r="L16" s="198"/>
       <c r="M16" s="301"/>
       <c r="N16" s="319"/>
-      <c r="O16" s="382">
+      <c r="O16" s="339">
         <v>1.4305288079133199E-2</v>
       </c>
       <c r="P16">
@@ -5930,7 +5929,7 @@
         <f t="shared" ref="N26" si="21">SUM(N27:N29)</f>
         <v>1872.9389999999999</v>
       </c>
-      <c r="O26" s="384">
+      <c r="O26" s="341">
         <f t="shared" si="20"/>
         <v>1931.039</v>
       </c>
@@ -6004,31 +6003,31 @@
         <v>556.79999999999995</v>
       </c>
       <c r="P27" s="102">
-        <f>O27*(1+P$6)</f>
+        <f t="shared" ref="P27:V29" si="23">O27*(1+P$6)</f>
         <v>562.50792049755387</v>
       </c>
       <c r="Q27" s="102">
-        <f>P27*(1+Q$6)</f>
+        <f t="shared" si="23"/>
         <v>570.65189992174237</v>
       </c>
       <c r="R27" s="102">
-        <f>Q27*(1+R$6)</f>
+        <f t="shared" si="23"/>
         <v>578.2378281901432</v>
       </c>
       <c r="S27" s="102">
-        <f>R27*(1+S$6)</f>
+        <f t="shared" si="23"/>
         <v>585.41604785157597</v>
       </c>
       <c r="T27" s="102">
-        <f>S27*(1+T$6)</f>
+        <f t="shared" si="23"/>
         <v>591.34311172537514</v>
       </c>
       <c r="U27" s="102">
-        <f>T27*(1+U$6)</f>
+        <f t="shared" si="23"/>
         <v>597.70591417287164</v>
       </c>
       <c r="V27" s="102">
-        <f>U27*(1+V$6)</f>
+        <f t="shared" si="23"/>
         <v>603.98462672018081</v>
       </c>
     </row>
@@ -6073,31 +6072,31 @@
         <v>1352.4</v>
       </c>
       <c r="P28" s="102">
-        <f>O28*(1+P$6)</f>
+        <f t="shared" si="23"/>
         <v>1366.2638500016019</v>
       </c>
       <c r="Q28" s="102">
-        <f>P28*(1+Q$6)</f>
+        <f t="shared" si="23"/>
         <v>1386.0445931288873</v>
       </c>
       <c r="R28" s="102">
-        <f>Q28*(1+R$6)</f>
+        <f t="shared" si="23"/>
         <v>1404.4698973497661</v>
       </c>
       <c r="S28" s="102">
-        <f>R28*(1+S$6)</f>
+        <f t="shared" si="23"/>
         <v>1421.9049265705305</v>
       </c>
       <c r="T28" s="102">
-        <f>S28*(1+T$6)</f>
+        <f t="shared" si="23"/>
         <v>1436.3010493846937</v>
       </c>
       <c r="U28" s="102">
-        <f>T28*(1+U$6)</f>
+        <f t="shared" si="23"/>
         <v>1451.7555286052293</v>
       </c>
       <c r="V28" s="102">
-        <f>U28*(1+V$6)</f>
+        <f t="shared" si="23"/>
         <v>1467.0057636069912</v>
       </c>
     </row>
@@ -6142,31 +6141,31 @@
         <v>21.838999999999999</v>
       </c>
       <c r="P29" s="102">
-        <f>O29*(1+P$6)</f>
+        <f t="shared" si="23"/>
         <v>22.062878009601434</v>
       </c>
       <c r="Q29" s="102">
-        <f>P29*(1+Q$6)</f>
+        <f t="shared" si="23"/>
         <v>22.382303955443479</v>
       </c>
       <c r="R29" s="102">
-        <f>Q29*(1+R$6)</f>
+        <f t="shared" si="23"/>
         <v>22.679841828025388</v>
       </c>
       <c r="S29" s="102">
-        <f>R29*(1+S$6)</f>
+        <f t="shared" si="23"/>
         <v>22.961388414207192</v>
       </c>
       <c r="T29" s="102">
-        <f>S29*(1+T$6)</f>
+        <f t="shared" si="23"/>
         <v>23.193861740248678</v>
       </c>
       <c r="U29" s="102">
-        <f>T29*(1+U$6)</f>
+        <f t="shared" si="23"/>
         <v>23.443425753630279</v>
       </c>
       <c r="V29" s="102">
-        <f>U29*(1+V$6)</f>
+        <f t="shared" si="23"/>
         <v>23.689691564191854</v>
       </c>
     </row>
@@ -6203,39 +6202,39 @@
         <v>90.2</v>
       </c>
       <c r="N30" s="318">
-        <f>M30*(1+N6)</f>
+        <f t="shared" ref="N30:V30" si="24">M30*(1+N6)</f>
         <v>91.517404099138886</v>
       </c>
-      <c r="O30" s="384">
-        <f>N30*(1+O6)</f>
+      <c r="O30" s="341">
+        <f t="shared" si="24"/>
         <v>93.943438685328047</v>
       </c>
       <c r="P30" s="102">
-        <f>O30*(1+P6)</f>
+        <f t="shared" si="24"/>
         <v>94.906480494384581</v>
       </c>
       <c r="Q30" s="102">
-        <f>P30*(1+Q6)</f>
+        <f t="shared" si="24"/>
         <v>96.28053478980631</v>
       </c>
       <c r="R30" s="102">
-        <f>Q30*(1+R6)</f>
+        <f t="shared" si="24"/>
         <v>97.560434551217611</v>
       </c>
       <c r="S30" s="102">
-        <f>R30*(1+S6)</f>
+        <f t="shared" si="24"/>
         <v>98.77154561198202</v>
       </c>
       <c r="T30" s="102">
-        <f>S30*(1+T6)</f>
+        <f t="shared" si="24"/>
         <v>99.771561347636251</v>
       </c>
       <c r="U30" s="102">
-        <f>T30*(1+U6)</f>
+        <f t="shared" si="24"/>
         <v>100.84509500710688</v>
       </c>
       <c r="V30" s="102">
-        <f>U30*(1+V6)</f>
+        <f t="shared" si="24"/>
         <v>101.90444099706906</v>
       </c>
     </row>
@@ -6244,31 +6243,31 @@
         <v>259</v>
       </c>
       <c r="F31" s="209">
-        <f>F30/F21</f>
+        <f t="shared" ref="F31:L31" si="25">F30/F21</f>
         <v>0.27055815935236471</v>
       </c>
       <c r="G31" s="209">
-        <f>G30/G21</f>
+        <f t="shared" si="25"/>
         <v>0.32039289055191766</v>
       </c>
       <c r="H31" s="209">
-        <f>H30/H21</f>
+        <f t="shared" si="25"/>
         <v>0.30642283675289922</v>
       </c>
       <c r="I31" s="209">
-        <f>I30/I21</f>
+        <f t="shared" si="25"/>
         <v>0.34623015873015872</v>
       </c>
       <c r="J31" s="209">
-        <f>J30/J21</f>
+        <f t="shared" si="25"/>
         <v>0.30909882455376581</v>
       </c>
       <c r="K31" s="209">
-        <f>K30/K21</f>
+        <f t="shared" si="25"/>
         <v>0.3473684210526316</v>
       </c>
       <c r="L31" s="209">
-        <f>L30/L21</f>
+        <f t="shared" si="25"/>
         <v>0.31603498542274056</v>
       </c>
       <c r="M31" s="209">
@@ -6278,7 +6277,7 @@
         <f>N30/N21</f>
         <v>0.43132981783498947</v>
       </c>
-      <c r="O31" s="385"/>
+      <c r="O31" s="342"/>
       <c r="P31" s="193"/>
       <c r="Q31" s="193"/>
       <c r="R31" s="193"/>
@@ -6400,33 +6399,33 @@
         <f>VLOOKUP($C$34,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>2925056</v>
       </c>
-      <c r="O34" s="386">
-        <f t="shared" ref="O34:U34" si="23">O35+O40+O50</f>
-        <v>3270456.7169724014</v>
+      <c r="O34" s="303">
+        <f>VLOOKUP($C$34,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>5166912</v>
       </c>
       <c r="P34" s="133">
-        <f t="shared" si="23"/>
-        <v>2708796.7165770018</v>
+        <f t="shared" ref="O34:U34" si="26">P35+P40+P50</f>
+        <v>2705730.7097351807</v>
       </c>
       <c r="Q34" s="133">
-        <f t="shared" si="23"/>
-        <v>2611509.6718853824</v>
+        <f t="shared" si="26"/>
+        <v>2608406.1184375221</v>
       </c>
       <c r="R34" s="133">
-        <f t="shared" si="23"/>
-        <v>2678465.9441347551</v>
+        <f t="shared" si="26"/>
+        <v>2675260.9058893258</v>
       </c>
       <c r="S34" s="133">
-        <f t="shared" si="23"/>
-        <v>2735176.6542439447</v>
+        <f t="shared" si="26"/>
+        <v>2731866.8126938515</v>
       </c>
       <c r="T34" s="133">
-        <f t="shared" si="23"/>
-        <v>2793300.2519227522</v>
+        <f t="shared" si="26"/>
+        <v>2789882.180047215</v>
       </c>
       <c r="U34" s="133">
-        <f t="shared" si="23"/>
-        <v>2852876.3150512893</v>
+        <f t="shared" si="26"/>
+        <v>2849346.4737674939</v>
       </c>
       <c r="V34" s="87"/>
       <c r="W34" s="44"/>
@@ -6501,49 +6500,49 @@
         <f>VLOOKUP($C$35,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>860594</v>
       </c>
-      <c r="O35" s="386">
-        <f>N35*((($AJ$35/$AI$35)^0.25))+12000</f>
-        <v>883132.91447240114</v>
+      <c r="O35" s="303">
+        <f>VLOOKUP($C$35,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>880104</v>
       </c>
       <c r="P35" s="87">
         <f>O35*((($AJ$35/$AI$35)^0.25))+12000</f>
-        <v>905947.84259575198</v>
+        <v>902881.83575393062</v>
       </c>
       <c r="Q35" s="87">
         <f>P35*((($AJ$35/$AI$35)^0.25))+12000</f>
-        <v>929042.16445899184</v>
+        <v>925938.6110111312</v>
       </c>
       <c r="R35" s="87">
         <f>Q35*((($AK$35/$AJ$35)^0.25))+12000</f>
-        <v>971421.42409696849</v>
+        <v>968216.38585153921</v>
       </c>
       <c r="S35" s="87">
         <f>R35*((($AK$35/$AJ$35)^0.25))</f>
-        <v>1003186.4664055918</v>
+        <v>999876.62485549843</v>
       </c>
       <c r="T35" s="87">
         <f>S35*((($AK$35/$AJ$35)^0.25))</f>
-        <v>1035990.2112668242</v>
+        <v>1032572.1393912865</v>
       </c>
       <c r="U35" s="87">
         <f>T35*((($AK$35/$AJ$35)^0.25))</f>
-        <v>1069866.6237855225</v>
+        <v>1066336.7825017269</v>
       </c>
       <c r="V35" s="87">
         <f>U35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1080647.7677858607</v>
+        <v>1077082.3559680069</v>
       </c>
       <c r="W35" s="87">
         <f>V35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1091537.5543621723</v>
+        <v>1087936.2135627293</v>
       </c>
       <c r="X35" s="87">
         <f>W35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1102537.0783156503</v>
+        <v>1098899.4464749785</v>
       </c>
       <c r="Y35" s="87">
         <f>X35*((($AL$35/$AK$35)^0.25))</f>
-        <v>1113647.4454798999</v>
+        <v>1109973.1568898512</v>
       </c>
       <c r="Z35" s="3"/>
       <c r="AA35" s="3"/>
@@ -6558,11 +6557,11 @@
       </c>
       <c r="AE35" s="45">
         <f>AVERAGE(N35:Q35)/1000</f>
-        <v>894.67923038178628</v>
+        <v>892.3796116912655</v>
       </c>
       <c r="AF35" s="45">
         <f>AVERAGE(R35:U35)/1000</f>
-        <v>1020.1161813887267</v>
+        <v>1016.7504831500127</v>
       </c>
       <c r="AH35">
         <v>775.4</v>
@@ -6615,7 +6614,7 @@
         <v>15600</v>
       </c>
       <c r="N36" s="315"/>
-      <c r="O36" s="386">
+      <c r="O36" s="343">
         <f>16*1000</f>
         <v>16000</v>
       </c>
@@ -6671,7 +6670,7 @@
         <f>VLOOKUP($C$36,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>5000</v>
       </c>
-      <c r="O37" s="386">
+      <c r="O37" s="343">
         <f>'Stimulus Round 2'!C4*4</f>
         <v>664000</v>
       </c>
@@ -6704,7 +6703,7 @@
       <c r="L38" s="202"/>
       <c r="M38" s="301"/>
       <c r="N38" s="303"/>
-      <c r="O38" s="386">
+      <c r="O38" s="343">
         <f>'Stimulus Round 2'!$C$15*4/2</f>
         <v>52000</v>
       </c>
@@ -6740,7 +6739,7 @@
       <c r="L39" s="202"/>
       <c r="M39" s="301"/>
       <c r="N39" s="303"/>
-      <c r="O39" s="386">
+      <c r="O39" s="343">
         <f>'Stimulus Round 2'!$C$19*4/4</f>
         <v>5000</v>
       </c>
@@ -6802,36 +6801,36 @@
         <f>N41+N44</f>
         <v>338269</v>
       </c>
-      <c r="O40" s="386">
-        <f t="shared" ref="O40:V40" si="24">O42+O46</f>
+      <c r="O40" s="343">
+        <f t="shared" ref="O40:V40" si="27">O42+O46</f>
         <v>724000</v>
       </c>
       <c r="P40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>152000</v>
       </c>
       <c r="Q40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44000</v>
       </c>
       <c r="R40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44000</v>
       </c>
       <c r="S40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44000</v>
       </c>
       <c r="T40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44000</v>
       </c>
       <c r="U40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44000</v>
       </c>
       <c r="V40" s="87">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>44000</v>
       </c>
       <c r="W40" s="44"/>
@@ -6853,7 +6852,7 @@
         <v>314.56725</v>
       </c>
       <c r="AF40" s="45">
-        <f t="shared" ref="AF40:AF50" si="25">AVERAGE(R40:U40)/1000</f>
+        <f t="shared" ref="AF40:AF50" si="28">AVERAGE(R40:U40)/1000</f>
         <v>44</v>
       </c>
       <c r="AH40">
@@ -6898,7 +6897,10 @@
         <f>VLOOKUP($C$41,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>302369</v>
       </c>
-      <c r="O41" s="386"/>
+      <c r="O41" s="303">
+        <f>VLOOKUP($C$41,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>880104</v>
+      </c>
       <c r="P41" s="87"/>
       <c r="Q41" s="87"/>
       <c r="R41" s="87"/>
@@ -6943,7 +6945,7 @@
         <f>N43+N44</f>
         <v>301600</v>
       </c>
-      <c r="O42" s="386">
+      <c r="O42" s="343">
         <f>SUM(O43:O45)</f>
         <v>664000</v>
       </c>
@@ -6952,11 +6954,11 @@
         <v>108000</v>
       </c>
       <c r="Q42" s="87">
-        <f t="shared" ref="Q42" si="26">Q43+Q44+Q45</f>
+        <f t="shared" ref="Q42" si="29">Q43+Q44+Q45</f>
         <v>0</v>
       </c>
       <c r="R42" s="87">
-        <f t="shared" ref="R42" si="27">R43+R44</f>
+        <f t="shared" ref="R42" si="30">R43+R44</f>
         <v>0</v>
       </c>
       <c r="S42" s="87"/>
@@ -7005,7 +7007,7 @@
         <f>1000*'figuring out UI'!O17</f>
         <v>265700</v>
       </c>
-      <c r="O43" s="386">
+      <c r="O43" s="343">
         <f>1000*'figuring out UI'!P17</f>
         <v>184000</v>
       </c>
@@ -7050,7 +7052,7 @@
         <v>139.42500000000001</v>
       </c>
       <c r="AF43" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="AG43" s="3"/>
@@ -7077,7 +7079,7 @@
       <c r="N44" s="303">
         <v>35900</v>
       </c>
-      <c r="O44" s="386"/>
+      <c r="O44" s="343"/>
       <c r="P44" s="87"/>
       <c r="Q44" s="87"/>
       <c r="R44" s="87"/>
@@ -7115,7 +7117,7 @@
       <c r="L45" s="202"/>
       <c r="M45" s="301"/>
       <c r="N45" s="303"/>
-      <c r="O45" s="386">
+      <c r="O45" s="343">
         <f>'Stimulus Round 2'!$C$3*4</f>
         <v>480000</v>
       </c>
@@ -7168,7 +7170,7 @@
         <f>1000*'figuring out UI'!O18</f>
         <v>36699.999999999985</v>
       </c>
-      <c r="O46" s="386">
+      <c r="O46" s="343">
         <f>1000*'figuring out UI'!P18</f>
         <v>60000</v>
       </c>
@@ -7216,7 +7218,7 @@
         <v>46.174999999999997</v>
       </c>
       <c r="AF46" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>44</v>
       </c>
       <c r="AG46" s="3"/>
@@ -7287,7 +7289,7 @@
         <v>46.274999999999999</v>
       </c>
       <c r="AF47" s="331">
-        <f t="shared" ref="AF47" si="28">AVERAGE(R47:U47)/1000</f>
+        <f t="shared" ref="AF47" si="31">AVERAGE(R47:U47)/1000</f>
         <v>15</v>
       </c>
       <c r="AG47" s="330"/>
@@ -7462,11 +7464,11 @@
         <v>1663323.8025</v>
       </c>
       <c r="P50" s="88">
-        <f t="shared" ref="P50:Q50" si="29">O50*(1+P52)</f>
+        <f t="shared" ref="P50:Q50" si="32">O50*(1+P52)</f>
         <v>1650848.87398125</v>
       </c>
       <c r="Q50" s="88">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>1638467.5074263907</v>
       </c>
       <c r="R50" s="88">
@@ -7474,15 +7476,15 @@
         <v>1663044.5200377863</v>
       </c>
       <c r="S50" s="88">
-        <f t="shared" ref="S50:U50" si="30">R50*(1+S52)</f>
+        <f t="shared" ref="S50:U50" si="33">R50*(1+S52)</f>
         <v>1687990.187838353</v>
       </c>
       <c r="T50" s="88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U50" s="88">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V50" s="88">
@@ -7508,7 +7510,7 @@
         <v>1657.1332959769102</v>
       </c>
       <c r="AF50" s="45">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>1700.8386099494589</v>
       </c>
       <c r="AG50" s="3"/>
@@ -7547,33 +7549,33 @@
         <v>4.3899160317375507E-2</v>
       </c>
       <c r="H51" s="227">
-        <f t="shared" ref="H51:L51" si="31">H50/G50-1</f>
+        <f t="shared" ref="H51:L51" si="34">H50/G50-1</f>
         <v>3.4867401440725754E-3</v>
       </c>
       <c r="I51" s="227">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3.5163841628156334E-3</v>
       </c>
       <c r="J51" s="227">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>5.2735975988749129E-3</v>
       </c>
       <c r="K51" s="227">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>3.4509222105193249E-2</v>
       </c>
       <c r="L51" s="227">
-        <f t="shared" si="31"/>
+        <f t="shared" si="34"/>
         <v>4.7166587697893059E-2</v>
       </c>
       <c r="M51" s="227">
         <v>1.2783825552366457E-2</v>
       </c>
       <c r="N51" s="227">
-        <f t="shared" ref="N51" si="32">N50/M50-1</f>
+        <f t="shared" ref="N51" si="35">N50/M50-1</f>
         <v>3.6483389338011207E-3</v>
       </c>
-      <c r="O51" s="387"/>
+      <c r="O51" s="344"/>
       <c r="P51" s="226"/>
       <c r="Q51" s="226"/>
       <c r="R51" s="226"/>
@@ -7665,7 +7667,7 @@
       <c r="L53" s="197"/>
       <c r="M53" s="301"/>
       <c r="N53" s="307"/>
-      <c r="O53" s="388"/>
+      <c r="O53" s="345"/>
       <c r="P53" s="3"/>
       <c r="Q53" s="3"/>
       <c r="R53" s="3"/>
@@ -7730,52 +7732,52 @@
         <f>VLOOKUP($C$54,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>610536</v>
       </c>
-      <c r="O54" s="299">
-        <f t="shared" ref="O54:Z54" si="33">O55+AVERAGE($H$54:$K$54)</f>
-        <v>853250.25</v>
+      <c r="O54" s="308">
+        <f>VLOOKUP($C$54,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>404854</v>
       </c>
       <c r="P54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="O54:Z54" si="36">P55+AVERAGE($H$54:$K$54)</f>
         <v>847383.58333333337</v>
       </c>
       <c r="Q54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>107416.91666666667</v>
       </c>
       <c r="R54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>102750.25</v>
       </c>
       <c r="S54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>77330.25</v>
       </c>
       <c r="T54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>77330.25</v>
       </c>
       <c r="U54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>77330.25</v>
       </c>
       <c r="V54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>77330.25</v>
       </c>
       <c r="W54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>74830.25</v>
       </c>
       <c r="X54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>74830.25</v>
       </c>
       <c r="Y54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>74830.25</v>
       </c>
       <c r="Z54" s="144">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>74830.25</v>
       </c>
       <c r="AA54" s="44"/>
@@ -7804,39 +7806,39 @@
         <v>1093900</v>
       </c>
       <c r="N55" s="308">
-        <f t="shared" ref="N55" si="34">N57+N58+N63</f>
+        <f t="shared" ref="N55" si="37">N57+N58+N63</f>
         <v>473700</v>
       </c>
       <c r="O55" s="299">
         <f>O57+O58+SUM(O63:O66)</f>
-        <v>778420</v>
+        <v>778604.6</v>
       </c>
       <c r="P55" s="116">
-        <f t="shared" ref="P55:V55" si="35">P57+P58+SUM(P63:P66)</f>
+        <f t="shared" ref="P55:V55" si="38">P57+P58+SUM(P63:P66)</f>
         <v>772553.33333333337</v>
       </c>
       <c r="Q55" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>32586.666666666672</v>
       </c>
       <c r="R55" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>27920</v>
       </c>
       <c r="S55" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2500</v>
       </c>
       <c r="T55" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2500</v>
       </c>
       <c r="U55" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2500</v>
       </c>
       <c r="V55" s="116">
-        <f t="shared" si="35"/>
+        <f t="shared" si="38"/>
         <v>2500</v>
       </c>
       <c r="W55" s="44"/>
@@ -7910,7 +7912,10 @@
         <f>VLOOKUP($C$57,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>260300</v>
       </c>
-      <c r="O57" s="299"/>
+      <c r="O57" s="308">
+        <f>VLOOKUP($C$57,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>184.6</v>
+      </c>
       <c r="P57" s="116">
         <f>'[1]Revised Add Factors'!F$13*1000</f>
         <v>0</v>
@@ -8039,7 +8044,10 @@
         <f>VLOOKUP($C$59,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>100</v>
       </c>
-      <c r="O59" s="389"/>
+      <c r="O59" s="309">
+        <f>VLOOKUP($C$59,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>38</v>
+      </c>
       <c r="P59" s="254"/>
       <c r="Q59" s="254"/>
       <c r="R59" s="254"/>
@@ -8087,7 +8095,10 @@
         <f>VLOOKUP($C$60,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>73300</v>
       </c>
-      <c r="O60" s="389"/>
+      <c r="O60" s="309">
+        <f>VLOOKUP($C$60,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>73.3</v>
+      </c>
       <c r="P60" s="254"/>
       <c r="Q60" s="254"/>
       <c r="R60" s="254"/>
@@ -8135,7 +8146,10 @@
         <f>VLOOKUP($C$61,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>140000</v>
       </c>
-      <c r="O61" s="389"/>
+      <c r="O61" s="309">
+        <f>VLOOKUP($C$61,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>8</v>
+      </c>
       <c r="P61" s="254"/>
       <c r="Q61" s="254"/>
       <c r="R61" s="254"/>
@@ -8171,7 +8185,7 @@
       <c r="L62" s="253"/>
       <c r="M62" s="301"/>
       <c r="N62" s="309"/>
-      <c r="O62" s="389"/>
+      <c r="O62" s="346"/>
       <c r="P62" s="254"/>
       <c r="Q62" s="254"/>
       <c r="R62" s="254"/>
@@ -8442,8 +8456,8 @@
         <v>738144</v>
       </c>
       <c r="O68" s="308">
-        <f>783900</f>
-        <v>783900</v>
+        <f>VLOOKUP($C$68,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>783864</v>
       </c>
       <c r="P68" s="116"/>
       <c r="Q68" s="116"/>
@@ -8507,31 +8521,31 @@
         <v>222</v>
       </c>
       <c r="F70" s="203">
-        <f t="shared" ref="F70:L70" si="36">F68-F93</f>
+        <f t="shared" ref="F70:L70" si="39">F68-F93</f>
         <v>196851</v>
       </c>
       <c r="G70" s="203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>189684</v>
       </c>
       <c r="H70" s="203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>192875</v>
       </c>
       <c r="I70" s="203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>191507</v>
       </c>
       <c r="J70" s="203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>203997</v>
       </c>
       <c r="K70" s="203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>204376</v>
       </c>
       <c r="L70" s="203">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>884250</v>
       </c>
       <c r="M70" s="301">
@@ -8543,7 +8557,7 @@
       </c>
       <c r="O70" s="308">
         <f>O68-O93</f>
-        <v>276422.75188174885</v>
+        <v>260701</v>
       </c>
       <c r="P70" s="116"/>
       <c r="Q70" s="116"/>
@@ -8587,51 +8601,51 @@
         <v>196951</v>
       </c>
       <c r="O71" s="299">
-        <f t="shared" ref="O71:Z71" si="37">N71*(1+O87)</f>
+        <f t="shared" ref="O71:Z71" si="40">N71*(1+O87)</f>
         <v>197738.804</v>
       </c>
       <c r="P71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>198529.75921600001</v>
       </c>
       <c r="Q71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>199323.878252864</v>
       </c>
       <c r="R71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>200121.17376587546</v>
       </c>
       <c r="S71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>200921.65846093895</v>
       </c>
       <c r="T71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>201725.34509478271</v>
       </c>
       <c r="U71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>202532.24647516184</v>
       </c>
       <c r="V71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>203342.37546106247</v>
       </c>
       <c r="W71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>204155.74496290673</v>
       </c>
       <c r="X71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>204972.36794275834</v>
       </c>
       <c r="Y71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>205792.25741452936</v>
       </c>
       <c r="Z71" s="116">
-        <f t="shared" si="37"/>
+        <f t="shared" si="40"/>
         <v>206615.42644418747</v>
       </c>
       <c r="AA71" s="44"/>
@@ -8672,9 +8686,9 @@
         <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>29000</v>
       </c>
-      <c r="O72" s="390">
-        <f>28900 + 17100</f>
-        <v>46000</v>
+      <c r="O72" s="205">
+        <f>VLOOKUP($C$72,'Haver NA'!$A$1:$J$34,10,0)</f>
+        <v>29000</v>
       </c>
       <c r="P72" s="139"/>
       <c r="Q72" s="139"/>
@@ -8719,51 +8733,51 @@
         <v>97200</v>
       </c>
       <c r="O73" s="299">
-        <f t="shared" ref="O73:Z73" si="38">O74+O78</f>
+        <f t="shared" ref="O73:Z73" si="41">O74+O78</f>
         <v>124900</v>
       </c>
       <c r="P73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>126000</v>
       </c>
       <c r="Q73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>120000</v>
       </c>
       <c r="R73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>119000</v>
       </c>
       <c r="S73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="T73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="U73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="V73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="W73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>109000</v>
       </c>
       <c r="X73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>69000</v>
       </c>
       <c r="Y73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="Z73" s="116">
-        <f t="shared" si="38"/>
+        <f t="shared" si="41"/>
         <v>59000</v>
       </c>
       <c r="AA73" s="116"/>
@@ -8789,51 +8803,51 @@
       <c r="M74" s="301"/>
       <c r="N74" s="308"/>
       <c r="O74" s="299">
-        <f t="shared" ref="O74:Z74" si="39">SUM(O75:O77)</f>
+        <f t="shared" ref="O74:Z74" si="42">SUM(O75:O77)</f>
         <v>72900</v>
       </c>
       <c r="P74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>67000</v>
       </c>
       <c r="Q74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>61000</v>
       </c>
       <c r="R74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>60000</v>
       </c>
       <c r="S74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>50000</v>
       </c>
       <c r="T74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>50000</v>
       </c>
       <c r="U74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>50000</v>
       </c>
       <c r="V74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>50000</v>
       </c>
       <c r="W74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>50000</v>
       </c>
       <c r="X74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>10000</v>
       </c>
       <c r="Y74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z74" s="116">
-        <f t="shared" si="39"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="AA74" s="44"/>
@@ -9037,47 +9051,47 @@
         <v>52000</v>
       </c>
       <c r="P78" s="116">
-        <f t="shared" ref="P78:Z78" si="40">SUM(P79:P82)</f>
+        <f t="shared" ref="P78:Z78" si="43">SUM(P79:P82)</f>
         <v>59000</v>
       </c>
       <c r="Q78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="R78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="S78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="T78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="U78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="V78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="W78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="X78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="Y78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="Z78" s="116">
-        <f t="shared" si="40"/>
+        <f t="shared" si="43"/>
         <v>59000</v>
       </c>
       <c r="AA78" s="116"/>
@@ -9387,63 +9401,63 @@
         <v>204376</v>
       </c>
       <c r="L83" s="206">
-        <f t="shared" ref="L83:Z83" si="41">L71+L73</f>
+        <f t="shared" ref="L83:Z83" si="44">L71+L73</f>
         <v>283950</v>
       </c>
       <c r="M83" s="206">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>291400</v>
       </c>
       <c r="N83" s="308">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>294151</v>
       </c>
       <c r="O83" s="299">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>322638.804</v>
       </c>
       <c r="P83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>324529.75921599998</v>
       </c>
       <c r="Q83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>319323.878252864</v>
       </c>
       <c r="R83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>319121.17376587546</v>
       </c>
       <c r="S83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>309921.65846093895</v>
       </c>
       <c r="T83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>310725.34509478271</v>
       </c>
       <c r="U83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>311532.24647516187</v>
       </c>
       <c r="V83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>312342.37546106247</v>
       </c>
       <c r="W83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>313155.7449629067</v>
       </c>
       <c r="X83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>273972.36794275837</v>
       </c>
       <c r="Y83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>264792.25741452933</v>
       </c>
       <c r="Z83" s="144">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>265615.42644418747</v>
       </c>
       <c r="AA83" s="44"/>
@@ -9465,7 +9479,7 @@
       <c r="L84" s="203"/>
       <c r="M84" s="301"/>
       <c r="N84" s="310"/>
-      <c r="O84" s="391"/>
+      <c r="O84" s="347"/>
       <c r="P84" s="135"/>
       <c r="Q84" s="44"/>
       <c r="R84" s="44"/>
@@ -9525,7 +9539,10 @@
         <f>VLOOKUP($C$85,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>1333.307</v>
       </c>
-      <c r="O85" s="299"/>
+      <c r="O85" s="308">
+        <f>VLOOKUP($C$85,'Haver NA'!$A$1:$K$34,11,0)/1000</f>
+        <v>1376.097</v>
+      </c>
       <c r="P85" s="116"/>
       <c r="Q85" s="116"/>
       <c r="R85" s="116"/>
@@ -9581,8 +9598,9 @@
         <f>VLOOKUP($C$86,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>1493.5530000000001</v>
       </c>
-      <c r="O86" s="382">
-        <v>1504.3514552807801</v>
+      <c r="O86" s="301">
+        <f>VLOOKUP($C$86,'Haver NA'!$A$1:$K$34,11,0)/1000</f>
+        <v>1557.0050000000001</v>
       </c>
       <c r="P86">
         <v>1511.252602267454</v>
@@ -9773,20 +9791,20 @@
       <c r="L89" s="207"/>
       <c r="M89" s="302"/>
       <c r="N89" s="311"/>
-      <c r="O89" s="384">
+      <c r="O89" s="341">
         <f>SUM(O90:O92)</f>
         <v>71400</v>
       </c>
       <c r="P89" s="102">
-        <f t="shared" ref="P89:R89" si="42">SUM(P90:P92)</f>
+        <f t="shared" ref="P89:R89" si="45">SUM(P90:P92)</f>
         <v>71400</v>
       </c>
       <c r="Q89" s="102">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>30600</v>
       </c>
       <c r="R89" s="102">
-        <f t="shared" si="42"/>
+        <f t="shared" si="45"/>
         <v>30600</v>
       </c>
       <c r="S89" s="186"/>
@@ -9991,37 +10009,37 @@
         <f>VLOOKUP($C$93,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>512193</v>
       </c>
-      <c r="O93" s="299">
-        <f t="shared" ref="O93:S93" si="43">O100*0.74</f>
-        <v>507477.24811825115</v>
+      <c r="O93" s="308">
+        <f>VLOOKUP($C$93,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>523163</v>
       </c>
       <c r="P93" s="116">
-        <f t="shared" si="43"/>
-        <v>512541.31638321205</v>
+        <f t="shared" ref="O93:S93" si="46">P100*0.74</f>
+        <v>513657.86006521928</v>
       </c>
       <c r="Q93" s="116">
-        <f t="shared" si="43"/>
-        <v>512541.31638321205</v>
+        <f t="shared" si="46"/>
+        <v>513657.86006521928</v>
       </c>
       <c r="R93" s="116">
-        <f t="shared" si="43"/>
-        <v>512541.31638321205</v>
+        <f t="shared" si="46"/>
+        <v>513657.86006521928</v>
       </c>
       <c r="S93" s="116">
-        <f t="shared" si="43"/>
-        <v>512541.31638321205</v>
+        <f t="shared" si="46"/>
+        <v>513657.86006521928</v>
       </c>
       <c r="T93" s="116">
         <f>T100*0.68</f>
-        <v>470983.91235214088</v>
+        <v>472009.92546533665</v>
       </c>
       <c r="U93" s="116">
         <f>U100*0.68</f>
-        <v>470983.91235214088</v>
+        <v>472009.92546533665</v>
       </c>
       <c r="V93" s="116">
         <f>V100*0.68</f>
-        <v>470983.91235214088</v>
+        <v>472009.92546533665</v>
       </c>
       <c r="W93" s="116"/>
       <c r="X93" s="116"/>
@@ -10039,11 +10057,11 @@
       </c>
       <c r="AE93" s="45">
         <f>AVERAGE(N93:Q93)</f>
-        <v>511188.22022116883</v>
+        <v>515667.93003260961</v>
       </c>
       <c r="AF93" s="45">
         <f>AVERAGE(R93:U93)</f>
-        <v>491762.61436767643</v>
+        <v>492833.892765278</v>
       </c>
       <c r="AH93" s="35">
         <v>409.42</v>
@@ -10070,31 +10088,31 @@
       <c r="B94" s="141"/>
       <c r="E94" s="141"/>
       <c r="F94" s="201">
-        <f t="shared" ref="F94:L94" si="44">F50+F47+F36+F42</f>
+        <f t="shared" ref="F94:L94" si="47">F50+F47+F36+F42</f>
         <v>1440187</v>
       </c>
       <c r="G94" s="201">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1503410</v>
       </c>
       <c r="H94" s="201">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1508652</v>
       </c>
       <c r="I94" s="201">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1513957</v>
       </c>
       <c r="J94" s="201">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1521941</v>
       </c>
       <c r="K94" s="201">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>1574462</v>
       </c>
       <c r="L94" s="201">
-        <f t="shared" si="44"/>
+        <f t="shared" si="47"/>
         <v>3729557.333333333</v>
       </c>
       <c r="M94" s="301">
@@ -10105,51 +10123,51 @@
         <v>2027793</v>
       </c>
       <c r="O94" s="298">
-        <f t="shared" ref="O94:Z94" si="45">O50+O47+O36+O42+O37+O38+O39</f>
+        <f t="shared" ref="O94:Z94" si="48">O50+O47+O36+O42+O37+O38+O39</f>
         <v>3118123.8025000002</v>
       </c>
       <c r="P94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1874848.87398125</v>
       </c>
       <c r="Q94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1686467.5074263907</v>
       </c>
       <c r="R94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1683044.5200377863</v>
       </c>
       <c r="S94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1687990.187838353</v>
       </c>
       <c r="T94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1713310.0406559282</v>
       </c>
       <c r="U94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1739009.691265767</v>
       </c>
       <c r="V94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>1756399.7881784246</v>
       </c>
       <c r="W94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="X94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z94" s="142">
-        <f t="shared" si="45"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="AM94" s="233"/>
@@ -10174,55 +10192,55 @@
         <v>1328805</v>
       </c>
       <c r="N95" s="310">
-        <f t="shared" ref="N95:Z95" si="46">N93+N35</f>
+        <f t="shared" ref="N95:Z95" si="49">N93+N35</f>
         <v>1372787</v>
       </c>
-      <c r="O95" s="391">
-        <f t="shared" si="46"/>
-        <v>1390610.1625906522</v>
+      <c r="O95" s="347">
+        <f t="shared" si="49"/>
+        <v>1403267</v>
       </c>
       <c r="P95" s="143">
-        <f t="shared" si="46"/>
-        <v>1418489.158978964</v>
+        <f t="shared" si="49"/>
+        <v>1416539.69581915</v>
       </c>
       <c r="Q95" s="143">
-        <f t="shared" si="46"/>
-        <v>1441583.4808422038</v>
+        <f t="shared" si="49"/>
+        <v>1439596.4710763504</v>
       </c>
       <c r="R95" s="143">
-        <f t="shared" si="46"/>
-        <v>1483962.7404801806</v>
+        <f t="shared" si="49"/>
+        <v>1481874.2459167584</v>
       </c>
       <c r="S95" s="143">
-        <f t="shared" si="46"/>
-        <v>1515727.7827888038</v>
+        <f t="shared" si="49"/>
+        <v>1513534.4849207178</v>
       </c>
       <c r="T95" s="143">
-        <f t="shared" si="46"/>
-        <v>1506974.123618965</v>
+        <f t="shared" si="49"/>
+        <v>1504582.0648566233</v>
       </c>
       <c r="U95" s="143">
-        <f t="shared" si="46"/>
-        <v>1540850.5361376633</v>
+        <f t="shared" si="49"/>
+        <v>1538346.7079670634</v>
       </c>
       <c r="V95" s="143">
-        <f t="shared" si="46"/>
-        <v>1551631.6801380017</v>
+        <f t="shared" si="49"/>
+        <v>1549092.2814333434</v>
       </c>
       <c r="W95" s="143">
-        <f t="shared" si="46"/>
-        <v>1091537.5543621723</v>
+        <f t="shared" si="49"/>
+        <v>1087936.2135627293</v>
       </c>
       <c r="X95" s="143">
-        <f t="shared" si="46"/>
-        <v>1102537.0783156503</v>
+        <f t="shared" si="49"/>
+        <v>1098899.4464749785</v>
       </c>
       <c r="Y95" s="143">
-        <f t="shared" si="46"/>
-        <v>1113647.4454798999</v>
+        <f t="shared" si="49"/>
+        <v>1109973.1568898512</v>
       </c>
       <c r="Z95" s="143">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="AM95" s="233"/>
@@ -10237,7 +10255,7 @@
       <c r="L96" s="197"/>
       <c r="M96" s="301"/>
       <c r="N96" s="301"/>
-      <c r="O96" s="382"/>
+      <c r="O96" s="339"/>
       <c r="AM96" s="233"/>
     </row>
     <row r="97" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -10279,37 +10297,37 @@
         <f>VLOOKUP($C$97,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>818740</v>
       </c>
-      <c r="O97" s="386">
-        <f t="shared" ref="O97:U97" si="47">O98+O100</f>
-        <v>831250.83502466371</v>
+      <c r="O97" s="303">
+        <f>VLOOKUP($C$97,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>833185</v>
       </c>
       <c r="P97" s="133">
-        <f t="shared" si="47"/>
-        <v>838457.84744285408</v>
+        <f t="shared" ref="O97:U97" si="50">P98+P100</f>
+        <v>839966.69025637733</v>
       </c>
       <c r="Q97" s="133">
-        <f t="shared" si="47"/>
-        <v>839187.01967747905</v>
+        <f t="shared" si="50"/>
+        <v>840695.86249100231</v>
       </c>
       <c r="R97" s="133">
-        <f t="shared" si="47"/>
-        <v>840286.24682117626</v>
+        <f t="shared" si="50"/>
+        <v>841795.08963469951</v>
       </c>
       <c r="S97" s="133">
-        <f t="shared" si="47"/>
-        <v>841762.8752842095</v>
+        <f t="shared" si="50"/>
+        <v>843271.71809773275</v>
       </c>
       <c r="T97" s="133">
-        <f t="shared" si="47"/>
-        <v>843107.97501111636</v>
+        <f t="shared" si="50"/>
+        <v>844616.81782463961</v>
       </c>
       <c r="U97" s="133">
-        <f t="shared" si="47"/>
-        <v>844539.45728929248</v>
+        <f t="shared" si="50"/>
+        <v>846048.30010281573</v>
       </c>
       <c r="V97" s="133">
-        <f t="shared" ref="V97" si="48">V98+V100</f>
-        <v>846032.64138980373</v>
+        <f t="shared" ref="V97" si="51">V98+V100</f>
+        <v>847541.48420332698</v>
       </c>
       <c r="AM97" s="233"/>
     </row>
@@ -10318,27 +10336,27 @@
         <v>224</v>
       </c>
       <c r="F98" s="203">
-        <f t="shared" ref="F98:K98" si="49">F97-F100</f>
+        <f t="shared" ref="F98:K98" si="52">F97-F100</f>
         <v>139025</v>
       </c>
       <c r="G98" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>139342</v>
       </c>
       <c r="H98" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>140228</v>
       </c>
       <c r="I98" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>141105</v>
       </c>
       <c r="J98" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>141335</v>
       </c>
       <c r="K98" s="203">
-        <f t="shared" si="49"/>
+        <f t="shared" si="52"/>
         <v>142991</v>
       </c>
       <c r="L98" s="203">
@@ -10352,36 +10370,36 @@
         <f>N97-N100</f>
         <v>145108</v>
       </c>
-      <c r="O98" s="386">
+      <c r="O98" s="343">
         <f>N98*(1+O110)</f>
         <v>145470.76999999999</v>
       </c>
       <c r="P98" s="133">
-        <f t="shared" ref="P98:S98" si="50">O98*(1+P110)</f>
+        <f t="shared" ref="P98:S98" si="53">O98*(1+P110)</f>
         <v>145834.44692499997</v>
       </c>
       <c r="Q98" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>146563.61915962494</v>
       </c>
       <c r="R98" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>147662.84630332215</v>
       </c>
       <c r="S98" s="133">
-        <f t="shared" si="50"/>
+        <f t="shared" si="53"/>
         <v>149139.47476635536</v>
       </c>
       <c r="T98" s="133">
-        <f t="shared" ref="T98:V98" si="51">S98*(1+T109)</f>
+        <f t="shared" ref="T98:V98" si="54">S98*(1+T109)</f>
         <v>150484.57449326222</v>
       </c>
       <c r="U98" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>151916.05677143831</v>
       </c>
       <c r="V98" s="133">
-        <f t="shared" si="51"/>
+        <f t="shared" si="54"/>
         <v>153409.24087194959</v>
       </c>
       <c r="AM98" s="233"/>
@@ -10396,7 +10414,7 @@
       <c r="L99" s="197"/>
       <c r="M99" s="301"/>
       <c r="N99" s="301"/>
-      <c r="O99" s="382"/>
+      <c r="O99" s="339"/>
       <c r="AM99" s="233"/>
     </row>
     <row r="100" spans="1:39" s="35" customFormat="1" x14ac:dyDescent="0.35">
@@ -10438,37 +10456,37 @@
         <f>VLOOKUP($C$100,'Haver NA'!$A$1:$J$34,10,0)</f>
         <v>673632</v>
       </c>
-      <c r="O100" s="391">
-        <f>N100*(($AJ$100/$AI$100)^0.18)</f>
-        <v>685780.06502466369</v>
+      <c r="O100" s="310">
+        <f>VLOOKUP($C$100,'Haver NA'!$A$1:$K$34,11,0)</f>
+        <v>687274</v>
       </c>
       <c r="P100" s="135">
         <f>O100*(($AJ$100/$AI$100)^0.1)</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="Q100" s="135">
         <f>P100*(1+Q101)</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="R100" s="135">
-        <f t="shared" ref="R100:V100" si="52">Q100*(1+R101)</f>
-        <v>692623.40051785414</v>
+        <f t="shared" ref="R100:V100" si="55">Q100*(1+R101)</f>
+        <v>694132.24333137739</v>
       </c>
       <c r="S100" s="135">
-        <f t="shared" si="52"/>
-        <v>692623.40051785414</v>
+        <f t="shared" si="55"/>
+        <v>694132.24333137739</v>
       </c>
       <c r="T100" s="135">
-        <f t="shared" si="52"/>
-        <v>692623.40051785414</v>
+        <f t="shared" si="55"/>
+        <v>694132.24333137739</v>
       </c>
       <c r="U100" s="135">
-        <f t="shared" si="52"/>
-        <v>692623.40051785414</v>
+        <f t="shared" si="55"/>
+        <v>694132.24333137739</v>
       </c>
       <c r="V100" s="135">
-        <f t="shared" si="52"/>
-        <v>692623.40051785414</v>
+        <f t="shared" si="55"/>
+        <v>694132.24333137739</v>
       </c>
       <c r="AD100" s="45">
         <f>AVERAGE(J100:M100)/1000</f>
@@ -10476,11 +10494,11 @@
       </c>
       <c r="AE100" s="45">
         <f>AVERAGE(N100:Q100)/1000</f>
-        <v>686.16471651509301</v>
+        <v>687.29262166568867</v>
       </c>
       <c r="AF100" s="45">
         <f>AVERAGE(R100:U100)/1000</f>
-        <v>692.62340051785418</v>
+        <v>694.13224333137737</v>
       </c>
       <c r="AH100" s="84"/>
       <c r="AI100" s="84">
@@ -10539,41 +10557,41 @@
         <v>216</v>
       </c>
       <c r="F102" s="208">
-        <f t="shared" ref="F102:L102" si="53">F93/F100</f>
+        <f t="shared" ref="F102:L102" si="56">F93/F100</f>
         <v>0.66058231423538405</v>
       </c>
       <c r="G102" s="208">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.6749214177505789</v>
       </c>
       <c r="H102" s="208">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.68242012696430432</v>
       </c>
       <c r="I102" s="208">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.6730637268687778</v>
       </c>
       <c r="J102" s="208">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.66395699382859508</v>
       </c>
       <c r="K102" s="208">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.67846773573296415</v>
       </c>
       <c r="L102" s="208">
-        <f t="shared" si="53"/>
+        <f t="shared" si="56"/>
         <v>0.76648081779484256</v>
       </c>
       <c r="M102" s="208">
         <v>0.71094027669909299</v>
       </c>
       <c r="N102" s="208">
-        <f t="shared" ref="N102" si="54">N93/N100</f>
+        <f t="shared" ref="N102" si="57">N93/N100</f>
         <v>0.76034541114436371</v>
       </c>
-      <c r="O102" s="392"/>
+      <c r="O102" s="348"/>
       <c r="AD102" s="154"/>
       <c r="AE102" s="154"/>
       <c r="AF102" s="154"/>
@@ -10621,37 +10639,37 @@
         <f>VLOOKUP($C$103,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>1984.547</v>
       </c>
-      <c r="O103" s="382">
-        <f>N103*(1+O105)</f>
-        <v>2009.5840333646127</v>
+      <c r="O103" s="301">
+        <f>VLOOKUP($C$103,'Haver NA'!$A$1:$K$34,11,0)/1000</f>
+        <v>1997.62</v>
       </c>
       <c r="P103" s="35">
-        <f t="shared" ref="P103:V103" si="55">O103*(1+P105)</f>
-        <v>2031.5173022625379</v>
+        <f t="shared" ref="P103:V103" si="58">O103*(1+P105)</f>
+        <v>2019.4226894563426</v>
       </c>
       <c r="Q103" s="35">
-        <f t="shared" si="55"/>
-        <v>2046.001536440413</v>
+        <f t="shared" si="58"/>
+        <v>2033.8206919275121</v>
       </c>
       <c r="R103" s="35">
-        <f t="shared" si="55"/>
-        <v>2056.0370415493694</v>
+        <f t="shared" si="58"/>
+        <v>2043.796450782537</v>
       </c>
       <c r="S103" s="35">
-        <f t="shared" si="55"/>
-        <v>2065.9690878427696</v>
+        <f t="shared" si="58"/>
+        <v>2053.6693667627678</v>
       </c>
       <c r="T103" s="35">
-        <f t="shared" si="55"/>
-        <v>2073.2112049317075</v>
+        <f t="shared" si="58"/>
+        <v>2060.8683679983528</v>
       </c>
       <c r="U103" s="35">
-        <f t="shared" si="55"/>
-        <v>2077.6599340006264</v>
+        <f t="shared" si="58"/>
+        <v>2065.2906116144977</v>
       </c>
       <c r="V103" s="35">
-        <f t="shared" si="55"/>
-        <v>2079.3152750495265</v>
+        <f t="shared" si="58"/>
+        <v>2066.9360976112025</v>
       </c>
       <c r="AM103" s="233"/>
     </row>
@@ -10664,27 +10682,27 @@
       <c r="D104" s="35"/>
       <c r="F104" s="200"/>
       <c r="G104" s="200">
-        <f t="shared" ref="G104:L104" si="56">(G103/F103)-1</f>
+        <f t="shared" ref="G104:L104" si="59">(G103/F103)-1</f>
         <v>7.8113264233139468E-3</v>
       </c>
       <c r="H104" s="200">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>6.3596164356336526E-3</v>
       </c>
       <c r="I104" s="200">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>1.3823747222907468E-3</v>
       </c>
       <c r="J104" s="200">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>3.5990731154167399E-3</v>
       </c>
       <c r="K104" s="200">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>2.6527805069758159E-3</v>
       </c>
       <c r="L104" s="200">
-        <f t="shared" si="56"/>
+        <f t="shared" si="59"/>
         <v>-1.36697697207252E-2</v>
       </c>
       <c r="M104" s="302">
@@ -10694,7 +10712,7 @@
         <f>(N103/M103)-1</f>
         <v>-4.2668250837534227E-3</v>
       </c>
-      <c r="O104" s="393"/>
+      <c r="O104" s="349"/>
       <c r="P104" s="252"/>
       <c r="Q104" s="252"/>
       <c r="R104" s="252"/>
@@ -10794,8 +10812,9 @@
         <f>VLOOKUP($C$106,'Haver NA'!$A$1:$J$34,10,0)/1000</f>
         <v>2337.201</v>
       </c>
-      <c r="O106" s="382">
-        <v>2469.9411956560398</v>
+      <c r="O106" s="301">
+        <f>VLOOKUP($C$106,'Haver NA'!$A$1:$K$34,11,0)/1000</f>
+        <v>2395.9470000000001</v>
       </c>
       <c r="P106">
         <v>2511.3882460388099</v>
@@ -10839,24 +10858,24 @@
       <c r="L107" s="197"/>
       <c r="M107" s="301"/>
       <c r="N107" s="301"/>
-      <c r="O107" s="382">
+      <c r="O107" s="339">
         <f>N107*(1+O110)</f>
         <v>0</v>
       </c>
       <c r="P107">
-        <f t="shared" ref="P107:S107" si="57">O107*(1+P110)</f>
+        <f t="shared" ref="P107:S107" si="60">O107*(1+P110)</f>
         <v>0</v>
       </c>
       <c r="Q107">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="R107">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="S107">
-        <f t="shared" si="57"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="T107">
@@ -10864,11 +10883,11 @@
         <v>0</v>
       </c>
       <c r="U107">
-        <f t="shared" ref="U107:V107" si="58">T107*(1+U109)</f>
+        <f t="shared" ref="U107:V107" si="61">T107*(1+U109)</f>
         <v>0</v>
       </c>
       <c r="V107">
-        <f t="shared" si="58"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="W107"/>
@@ -10889,11 +10908,11 @@
       <c r="I108" s="200"/>
       <c r="J108" s="200"/>
       <c r="K108" s="200">
-        <f t="shared" ref="K108" si="59">(K106/J106)-1</f>
+        <f t="shared" ref="K108" si="62">(K106/J106)-1</f>
         <v>1.0265546788835067E-2</v>
       </c>
       <c r="L108" s="200">
-        <f t="shared" ref="L108" si="60">(L106/K106)-1</f>
+        <f t="shared" ref="L108" si="63">(L106/K106)-1</f>
         <v>-1.9776620759153429E-2</v>
       </c>
       <c r="M108" s="302">
@@ -10903,7 +10922,7 @@
         <f>(((N106/M106))^4)-1</f>
         <v>1.3106483787577172E-2</v>
       </c>
-      <c r="O108" s="393"/>
+      <c r="O108" s="349"/>
       <c r="P108" s="252"/>
       <c r="Q108" s="252"/>
       <c r="R108" s="252"/>
@@ -11005,82 +11024,82 @@
         <v>396</v>
       </c>
       <c r="F111" s="201">
-        <f t="shared" ref="F111:L111" si="61">F97+F46-F93</f>
+        <f t="shared" ref="F111:L111" si="64">F97+F46-F93</f>
         <v>339220</v>
       </c>
       <c r="G111" s="201">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>334185</v>
       </c>
       <c r="H111" s="201">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>335532</v>
       </c>
       <c r="I111" s="201">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>344546</v>
       </c>
       <c r="J111" s="201">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>349558</v>
       </c>
       <c r="K111" s="201">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>343658</v>
       </c>
       <c r="L111" s="201">
-        <f t="shared" si="61"/>
+        <f t="shared" si="64"/>
         <v>560584.66666666674</v>
       </c>
       <c r="M111" s="301">
         <v>528408</v>
       </c>
       <c r="N111" s="306">
-        <f t="shared" ref="N111:Y111" si="62">N97+N46-N93</f>
+        <f t="shared" ref="N111:Y111" si="65">N97+N46-N93</f>
         <v>343247</v>
       </c>
       <c r="O111" s="298">
-        <f t="shared" si="62"/>
-        <v>383773.58690641256</v>
+        <f t="shared" si="65"/>
+        <v>370022</v>
       </c>
       <c r="P111" s="215">
-        <f t="shared" si="62"/>
-        <v>369916.53105964203</v>
+        <f t="shared" si="65"/>
+        <v>370308.83019115805</v>
       </c>
       <c r="Q111" s="215">
-        <f t="shared" si="62"/>
-        <v>370645.703294267</v>
+        <f t="shared" si="65"/>
+        <v>371038.00242578302</v>
       </c>
       <c r="R111" s="215">
-        <f t="shared" si="62"/>
-        <v>371744.93043796421</v>
+        <f t="shared" si="65"/>
+        <v>372137.22956948023</v>
       </c>
       <c r="S111" s="215">
-        <f t="shared" si="62"/>
-        <v>373221.55890099745</v>
+        <f t="shared" si="65"/>
+        <v>373613.85803251347</v>
       </c>
       <c r="T111" s="215">
-        <f t="shared" si="62"/>
-        <v>416124.06265897548</v>
+        <f t="shared" si="65"/>
+        <v>416606.89235930296</v>
       </c>
       <c r="U111" s="215">
-        <f t="shared" si="62"/>
-        <v>417555.5449371516</v>
+        <f t="shared" si="65"/>
+        <v>418038.37463747908</v>
       </c>
       <c r="V111" s="215">
-        <f t="shared" si="62"/>
-        <v>419048.72903766285</v>
+        <f t="shared" si="65"/>
+        <v>419531.55873799033</v>
       </c>
       <c r="W111" s="215">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="X111" s="215">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="Y111" s="215">
-        <f t="shared" si="62"/>
+        <f t="shared" si="65"/>
         <v>0</v>
       </c>
       <c r="AM111" s="233"/>
@@ -11092,31 +11111,31 @@
       <c r="B112" s="141"/>
       <c r="E112" s="141"/>
       <c r="F112" s="201">
-        <f t="shared" ref="F112:L112" si="63">F100-F93</f>
+        <f t="shared" ref="F112:L112" si="66">F100-F93</f>
         <v>200195</v>
       </c>
       <c r="G112" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>194843</v>
       </c>
       <c r="H112" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>195304</v>
       </c>
       <c r="I112" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>203441</v>
       </c>
       <c r="J112" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>208223</v>
       </c>
       <c r="K112" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>200667</v>
       </c>
       <c r="L112" s="201">
-        <f t="shared" si="63"/>
+        <f t="shared" si="66"/>
         <v>156183</v>
       </c>
       <c r="M112" s="301">
@@ -11127,47 +11146,47 @@
         <v>161439</v>
       </c>
       <c r="O112" s="298">
-        <f t="shared" ref="O112:Y112" si="64">O100-O93</f>
-        <v>178302.81690641254</v>
+        <f t="shared" ref="O112:Y112" si="67">O100-O93</f>
+        <v>164111</v>
       </c>
       <c r="P112" s="142">
-        <f t="shared" si="64"/>
-        <v>180082.08413464209</v>
+        <f t="shared" si="67"/>
+        <v>180474.38326615811</v>
       </c>
       <c r="Q112" s="142">
-        <f t="shared" si="64"/>
-        <v>180082.08413464209</v>
+        <f t="shared" si="67"/>
+        <v>180474.38326615811</v>
       </c>
       <c r="R112" s="142">
-        <f t="shared" si="64"/>
-        <v>180082.08413464209</v>
+        <f t="shared" si="67"/>
+        <v>180474.38326615811</v>
       </c>
       <c r="S112" s="142">
-        <f t="shared" si="64"/>
-        <v>180082.08413464209</v>
+        <f t="shared" si="67"/>
+        <v>180474.38326615811</v>
       </c>
       <c r="T112" s="142">
-        <f t="shared" si="64"/>
-        <v>221639.48816571326</v>
+        <f t="shared" si="67"/>
+        <v>222122.31786604074</v>
       </c>
       <c r="U112" s="142">
-        <f t="shared" si="64"/>
-        <v>221639.48816571326</v>
+        <f t="shared" si="67"/>
+        <v>222122.31786604074</v>
       </c>
       <c r="V112" s="142">
-        <f t="shared" si="64"/>
-        <v>221639.48816571326</v>
+        <f t="shared" si="67"/>
+        <v>222122.31786604074</v>
       </c>
       <c r="W112" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="X112" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="Y112" s="142">
-        <f t="shared" si="64"/>
+        <f t="shared" si="67"/>
         <v>0</v>
       </c>
       <c r="AM112" s="233"/>
@@ -11179,27 +11198,27 @@
       <c r="C113" s="35"/>
       <c r="D113" s="35"/>
       <c r="F113" s="201">
-        <f t="shared" ref="F113:K113" si="65">F111-F112</f>
+        <f t="shared" ref="F113:K113" si="68">F111-F112</f>
         <v>139025</v>
       </c>
       <c r="G113" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>139342</v>
       </c>
       <c r="H113" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>140228</v>
       </c>
       <c r="I113" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>141105</v>
       </c>
       <c r="J113" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>141335</v>
       </c>
       <c r="K113" s="201">
-        <f t="shared" si="65"/>
+        <f t="shared" si="68"/>
         <v>142991</v>
       </c>
       <c r="L113" s="201">
@@ -11214,47 +11233,47 @@
         <v>181808</v>
       </c>
       <c r="O113" s="298">
-        <f t="shared" ref="O113:Y113" si="66">O111-O112</f>
-        <v>205470.77000000002</v>
+        <f t="shared" ref="O113:Y113" si="69">O111-O112</f>
+        <v>205911</v>
       </c>
       <c r="P113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>189834.44692499994</v>
       </c>
       <c r="Q113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>190563.61915962491</v>
       </c>
       <c r="R113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>191662.84630332212</v>
       </c>
       <c r="S113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>193139.47476635536</v>
       </c>
       <c r="T113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>194484.57449326222</v>
       </c>
       <c r="U113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>195916.05677143834</v>
       </c>
       <c r="V113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>197409.24087194959</v>
       </c>
       <c r="W113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="X113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="Y113" s="142">
-        <f t="shared" si="66"/>
+        <f t="shared" si="69"/>
         <v>0</v>
       </c>
       <c r="AM113" s="256"/>
@@ -12853,50 +12872,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="369" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="358"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358"/>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="358"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="370"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="370"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="370"/>
+      <c r="P5" s="370"/>
+      <c r="Q5" s="370"/>
+      <c r="R5" s="370"/>
+      <c r="S5" s="370"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="371" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="359"/>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="359"/>
-      <c r="R6" s="359"/>
-      <c r="S6" s="359"/>
+      <c r="B6" s="371"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="371"/>
+      <c r="K6" s="371"/>
+      <c r="L6" s="371"/>
+      <c r="M6" s="371"/>
+      <c r="N6" s="371"/>
+      <c r="O6" s="371"/>
+      <c r="P6" s="371"/>
+      <c r="Q6" s="371"/>
+      <c r="R6" s="371"/>
+      <c r="S6" s="371"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -12937,8 +12956,8 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="131"/>
-      <c r="R8" s="360"/>
-      <c r="S8" s="361"/>
+      <c r="R8" s="372"/>
+      <c r="S8" s="373"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="130"/>
@@ -13210,10 +13229,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="341" t="s">
+      <c r="A1" s="353" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="341"/>
+      <c r="B1" s="353"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1"/>
@@ -13221,18 +13240,18 @@
       <c r="X1" t="s">
         <v>27</v>
       </c>
-      <c r="Z1" s="362" t="s">
+      <c r="Z1" s="374" t="s">
         <v>83</v>
       </c>
-      <c r="AA1" s="362"/>
-      <c r="AB1" s="362"/>
-      <c r="AC1" s="340"/>
-      <c r="AD1" s="340"/>
-      <c r="AE1" s="340"/>
-      <c r="AF1" s="340"/>
+      <c r="AA1" s="374"/>
+      <c r="AB1" s="374"/>
+      <c r="AC1" s="352"/>
+      <c r="AD1" s="352"/>
+      <c r="AE1" s="352"/>
+      <c r="AF1" s="352"/>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A2" s="363" t="s">
+      <c r="A2" s="375" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="107"/>
@@ -13241,45 +13260,45 @@
       </c>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A3" s="363"/>
+      <c r="A3" s="375"/>
       <c r="B3" s="108"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A4" s="363"/>
+      <c r="A4" s="375"/>
       <c r="B4" s="109"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="A5" s="363"/>
+      <c r="A5" s="375"/>
       <c r="B5" s="98"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.35">
-      <c r="C7" s="353" t="s">
+      <c r="C7" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="365" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="355"/>
-      <c r="K7" s="353" t="s">
+      <c r="H7" s="366"/>
+      <c r="I7" s="366"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="365" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="355"/>
+      <c r="L7" s="366"/>
+      <c r="M7" s="366"/>
+      <c r="N7" s="367"/>
     </row>
     <row r="8" spans="1:32" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B8" s="2" t="s">
@@ -14797,7 +14816,7 @@
       </c>
       <c r="H70" s="102">
         <f>main!O54/1000</f>
-        <v>853.25025000000005</v>
+        <v>404.85399999999998</v>
       </c>
       <c r="I70" s="102">
         <f>main!P54/1000</f>
@@ -14865,7 +14884,7 @@
       </c>
       <c r="H72" s="103">
         <f t="shared" si="23"/>
-        <v>-243.83788151563999</v>
+        <v>-692.23413151564</v>
       </c>
       <c r="I72" s="103">
         <f t="shared" si="23"/>
@@ -15161,88 +15180,88 @@
       <c r="M1" s="46"/>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A2" s="369" t="s">
+      <c r="A2" s="376" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="369"/>
-      <c r="C2" s="369"/>
-      <c r="D2" s="369"/>
-      <c r="E2" s="369"/>
-      <c r="F2" s="369"/>
-      <c r="G2" s="369"/>
-      <c r="H2" s="369"/>
-      <c r="I2" s="369"/>
-      <c r="J2" s="369"/>
+      <c r="B2" s="376"/>
+      <c r="C2" s="376"/>
+      <c r="D2" s="376"/>
+      <c r="E2" s="376"/>
+      <c r="F2" s="376"/>
+      <c r="G2" s="376"/>
+      <c r="H2" s="376"/>
+      <c r="I2" s="376"/>
+      <c r="J2" s="376"/>
       <c r="K2" s="77"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.35">
-      <c r="A3" s="369" t="s">
+      <c r="A3" s="376" t="s">
         <v>104</v>
       </c>
-      <c r="B3" s="369"/>
-      <c r="C3" s="369"/>
-      <c r="D3" s="369"/>
-      <c r="E3" s="369"/>
-      <c r="F3" s="369"/>
-      <c r="G3" s="369"/>
-      <c r="H3" s="369"/>
-      <c r="I3" s="369"/>
-      <c r="J3" s="369"/>
+      <c r="B3" s="376"/>
+      <c r="C3" s="376"/>
+      <c r="D3" s="376"/>
+      <c r="E3" s="376"/>
+      <c r="F3" s="376"/>
+      <c r="G3" s="376"/>
+      <c r="H3" s="376"/>
+      <c r="I3" s="376"/>
+      <c r="J3" s="376"/>
       <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="370"/>
-      <c r="B4" s="370"/>
-      <c r="C4" s="370"/>
-      <c r="D4" s="370"/>
-      <c r="E4" s="370"/>
-      <c r="F4" s="370"/>
-      <c r="G4" s="370"/>
-      <c r="H4" s="370"/>
-      <c r="I4" s="370"/>
-      <c r="J4" s="370"/>
-      <c r="K4" s="375" t="s">
+      <c r="A4" s="377"/>
+      <c r="B4" s="377"/>
+      <c r="C4" s="377"/>
+      <c r="D4" s="377"/>
+      <c r="E4" s="377"/>
+      <c r="F4" s="377"/>
+      <c r="G4" s="377"/>
+      <c r="H4" s="377"/>
+      <c r="I4" s="377"/>
+      <c r="J4" s="377"/>
+      <c r="K4" s="382" t="s">
         <v>159</v>
       </c>
-      <c r="L4" s="375"/>
-      <c r="M4" s="375"/>
-      <c r="N4" s="375"/>
+      <c r="L4" s="382"/>
+      <c r="M4" s="382"/>
+      <c r="N4" s="382"/>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A5" s="47"/>
       <c r="B5" s="48"/>
-      <c r="C5" s="371" t="s">
+      <c r="C5" s="378" t="s">
         <v>105</v>
       </c>
-      <c r="D5" s="372"/>
-      <c r="E5" s="372"/>
-      <c r="F5" s="372"/>
-      <c r="G5" s="372"/>
-      <c r="H5" s="372"/>
-      <c r="I5" s="372"/>
-      <c r="J5" s="373"/>
+      <c r="D5" s="379"/>
+      <c r="E5" s="379"/>
+      <c r="F5" s="379"/>
+      <c r="G5" s="379"/>
+      <c r="H5" s="379"/>
+      <c r="I5" s="379"/>
+      <c r="J5" s="380"/>
       <c r="K5" s="78"/>
-      <c r="L5" s="374" t="s">
+      <c r="L5" s="381" t="s">
         <v>106</v>
       </c>
-      <c r="M5" s="340"/>
-      <c r="N5" s="340"/>
+      <c r="M5" s="352"/>
+      <c r="N5" s="352"/>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="49"/>
-      <c r="C6" s="365">
+      <c r="C6" s="384">
         <v>2020</v>
       </c>
-      <c r="D6" s="366"/>
-      <c r="E6" s="366"/>
-      <c r="F6" s="366"/>
-      <c r="G6" s="366"/>
-      <c r="H6" s="366"/>
-      <c r="I6" s="366"/>
-      <c r="J6" s="367"/>
+      <c r="D6" s="385"/>
+      <c r="E6" s="385"/>
+      <c r="F6" s="385"/>
+      <c r="G6" s="385"/>
+      <c r="H6" s="385"/>
+      <c r="I6" s="385"/>
+      <c r="J6" s="386"/>
       <c r="K6" s="78" t="s">
         <v>134</v>
       </c>
@@ -15680,24 +15699,24 @@
       <c r="H22">
         <v>0</v>
       </c>
-      <c r="K22" s="340" t="s">
+      <c r="K22" s="352" t="s">
         <v>9</v>
       </c>
-      <c r="L22" s="340"/>
-      <c r="M22" s="340"/>
-      <c r="N22" s="340"/>
-      <c r="O22" s="340" t="s">
+      <c r="L22" s="352"/>
+      <c r="M22" s="352"/>
+      <c r="N22" s="352"/>
+      <c r="O22" s="352" t="s">
         <v>10</v>
       </c>
-      <c r="P22" s="340"/>
-      <c r="Q22" s="340"/>
-      <c r="R22" s="340"/>
-      <c r="S22" s="340" t="s">
+      <c r="P22" s="352"/>
+      <c r="Q22" s="352"/>
+      <c r="R22" s="352"/>
+      <c r="S22" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="T22" s="340"/>
-      <c r="U22" s="340"/>
-      <c r="V22" s="340"/>
+      <c r="T22" s="352"/>
+      <c r="U22" s="352"/>
+      <c r="V22" s="352"/>
     </row>
     <row r="23" spans="3:23" x14ac:dyDescent="0.35">
       <c r="C23" s="67"/>
@@ -15714,12 +15733,12 @@
       <c r="H23">
         <v>0</v>
       </c>
-      <c r="K23" s="368" t="s">
+      <c r="K23" s="387" t="s">
         <v>107</v>
       </c>
-      <c r="L23" s="368"/>
-      <c r="M23" s="368"/>
-      <c r="N23" s="368"/>
+      <c r="L23" s="387"/>
+      <c r="M23" s="387"/>
+      <c r="N23" s="387"/>
       <c r="O23" s="35" t="s">
         <v>145</v>
       </c>
@@ -15888,7 +15907,7 @@
       <c r="S27" s="72"/>
     </row>
     <row r="28" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I28" s="364" t="s">
+      <c r="I28" s="383" t="s">
         <v>252</v>
       </c>
       <c r="J28" s="82" t="s">
@@ -15938,7 +15957,7 @@
       <c r="H29">
         <v>67</v>
       </c>
-      <c r="I29" s="364"/>
+      <c r="I29" s="383"/>
       <c r="J29" s="82" t="s">
         <v>142</v>
       </c>
@@ -15986,7 +16005,7 @@
         <f>H29</f>
         <v>67</v>
       </c>
-      <c r="I30" s="364"/>
+      <c r="I30" s="383"/>
       <c r="J30" s="82" t="s">
         <v>141</v>
       </c>
@@ -16034,7 +16053,7 @@
         <f>24</f>
         <v>24</v>
       </c>
-      <c r="I31" s="364"/>
+      <c r="I31" s="383"/>
       <c r="J31" s="35" t="s">
         <v>139</v>
       </c>
@@ -16096,7 +16115,7 @@
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="I33" s="364" t="s">
+      <c r="I33" s="383" t="s">
         <v>140</v>
       </c>
       <c r="J33" s="85" t="s">
@@ -16144,7 +16163,7 @@
       </c>
     </row>
     <row r="34" spans="3:23" x14ac:dyDescent="0.35">
-      <c r="I34" s="364"/>
+      <c r="I34" s="383"/>
       <c r="J34" t="s">
         <v>253</v>
       </c>
@@ -16381,12 +16400,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="C5:J5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="K4:N4"/>
     <mergeCell ref="O22:R22"/>
     <mergeCell ref="S22:V22"/>
     <mergeCell ref="I28:I31"/>
@@ -16394,6 +16407,12 @@
     <mergeCell ref="C6:J6"/>
     <mergeCell ref="K23:N23"/>
     <mergeCell ref="K22:N22"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="C5:J5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="K4:N4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16500,30 +16519,30 @@
       <c r="B6" s="41"/>
       <c r="C6" s="41"/>
       <c r="D6" s="41"/>
-      <c r="E6" s="377" t="s">
+      <c r="E6" s="391" t="s">
         <v>86</v>
       </c>
-      <c r="F6" s="377"/>
-      <c r="G6" s="377"/>
-      <c r="H6" s="377"/>
-      <c r="I6" s="377"/>
-      <c r="J6" s="377"/>
-      <c r="K6" s="377"/>
-      <c r="L6" s="377"/>
-      <c r="M6" s="377"/>
-      <c r="N6" s="377"/>
-      <c r="O6" s="377"/>
-      <c r="P6" s="377"/>
-      <c r="Q6" s="377"/>
-      <c r="R6" s="377"/>
+      <c r="F6" s="391"/>
+      <c r="G6" s="391"/>
+      <c r="H6" s="391"/>
+      <c r="I6" s="391"/>
+      <c r="J6" s="391"/>
+      <c r="K6" s="391"/>
+      <c r="L6" s="391"/>
+      <c r="M6" s="391"/>
+      <c r="N6" s="391"/>
+      <c r="O6" s="391"/>
+      <c r="P6" s="391"/>
+      <c r="Q6" s="391"/>
+      <c r="R6" s="391"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A7" s="376" t="s">
+      <c r="A7" s="388" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="376"/>
-      <c r="C7" s="376"/>
-      <c r="D7" s="376"/>
+      <c r="B7" s="388"/>
+      <c r="C7" s="388"/>
+      <c r="D7" s="388"/>
       <c r="E7" s="36"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
@@ -16541,11 +16560,11 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A8" s="36"/>
-      <c r="B8" s="376" t="s">
+      <c r="B8" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="C8" s="376"/>
-      <c r="D8" s="376"/>
+      <c r="C8" s="388"/>
+      <c r="D8" s="388"/>
       <c r="E8" s="42">
         <v>1717.857</v>
       </c>
@@ -16591,11 +16610,11 @@
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A9" s="36"/>
-      <c r="B9" s="376" t="s">
+      <c r="B9" s="388" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="376"/>
-      <c r="D9" s="376"/>
+      <c r="C9" s="388"/>
+      <c r="D9" s="388"/>
       <c r="E9" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -16641,11 +16660,11 @@
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A10" s="36"/>
-      <c r="B10" s="376" t="s">
+      <c r="B10" s="388" t="s">
         <v>90</v>
       </c>
-      <c r="C10" s="376"/>
-      <c r="D10" s="376"/>
+      <c r="C10" s="388"/>
+      <c r="D10" s="388"/>
       <c r="E10" s="42">
         <v>230.245</v>
       </c>
@@ -16691,11 +16710,11 @@
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A11" s="36"/>
-      <c r="B11" s="376" t="s">
+      <c r="B11" s="388" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="376"/>
-      <c r="D11" s="376"/>
+      <c r="C11" s="388"/>
+      <c r="D11" s="388"/>
       <c r="E11" s="42">
         <v>271.327</v>
       </c>
@@ -16790,10 +16809,10 @@
     <row r="13" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A13" s="36"/>
       <c r="B13" s="36"/>
-      <c r="C13" s="376" t="s">
+      <c r="C13" s="388" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="376"/>
+      <c r="D13" s="388"/>
       <c r="E13" s="42">
         <v>3462.8009999999999</v>
       </c>
@@ -16944,11 +16963,11 @@
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A19" s="36"/>
-      <c r="B19" s="376" t="s">
+      <c r="B19" s="388" t="s">
         <v>88</v>
       </c>
-      <c r="C19" s="376"/>
-      <c r="D19" s="376"/>
+      <c r="C19" s="388"/>
+      <c r="D19" s="388"/>
       <c r="E19" s="42">
         <v>1717.857</v>
       </c>
@@ -17007,11 +17026,11 @@
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A20" s="36"/>
-      <c r="B20" s="376" t="s">
+      <c r="B20" s="388" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="376"/>
-      <c r="D20" s="376"/>
+      <c r="C20" s="388"/>
+      <c r="D20" s="388"/>
       <c r="E20" s="42">
         <v>1243.3720000000001</v>
       </c>
@@ -17071,11 +17090,11 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A21" s="36"/>
-      <c r="B21" s="376" t="s">
+      <c r="B21" s="388" t="s">
         <v>90</v>
       </c>
-      <c r="C21" s="376"/>
-      <c r="D21" s="376"/>
+      <c r="C21" s="388"/>
+      <c r="D21" s="388"/>
       <c r="E21" s="42">
         <v>230.245</v>
       </c>
@@ -17134,11 +17153,11 @@
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A22" s="36"/>
-      <c r="B22" s="376" t="s">
+      <c r="B22" s="388" t="s">
         <v>57</v>
       </c>
-      <c r="C22" s="376"/>
-      <c r="D22" s="376"/>
+      <c r="C22" s="388"/>
+      <c r="D22" s="388"/>
       <c r="E22" s="42">
         <v>271.327</v>
       </c>
@@ -17251,21 +17270,21 @@
       <c r="E27" s="24"/>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
-      <c r="H27" s="378" t="s">
+      <c r="H27" s="389" t="s">
         <v>94</v>
       </c>
-      <c r="I27" s="378"/>
-      <c r="J27" s="378"/>
-      <c r="K27" s="378"/>
-      <c r="L27" s="378"/>
-      <c r="M27" s="378"/>
-      <c r="N27" s="378"/>
-      <c r="O27" s="378"/>
-      <c r="P27" s="378"/>
-      <c r="Q27" s="378"/>
-      <c r="R27" s="378"/>
-      <c r="S27" s="378"/>
-      <c r="T27" s="378"/>
+      <c r="I27" s="389"/>
+      <c r="J27" s="389"/>
+      <c r="K27" s="389"/>
+      <c r="L27" s="389"/>
+      <c r="M27" s="389"/>
+      <c r="N27" s="389"/>
+      <c r="O27" s="389"/>
+      <c r="P27" s="389"/>
+      <c r="Q27" s="389"/>
+      <c r="R27" s="389"/>
+      <c r="S27" s="389"/>
+      <c r="T27" s="389"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A28" s="24" t="s">
@@ -17581,21 +17600,21 @@
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="379" t="s">
+      <c r="F37" s="390" t="s">
         <v>98</v>
       </c>
-      <c r="G37" s="379"/>
-      <c r="H37" s="379"/>
-      <c r="I37" s="379"/>
-      <c r="J37" s="379"/>
-      <c r="K37" s="379"/>
-      <c r="L37" s="379"/>
-      <c r="M37" s="379"/>
-      <c r="N37" s="379"/>
-      <c r="O37" s="379"/>
-      <c r="P37" s="379"/>
-      <c r="Q37" s="379"/>
-      <c r="R37" s="379"/>
+      <c r="G37" s="390"/>
+      <c r="H37" s="390"/>
+      <c r="I37" s="390"/>
+      <c r="J37" s="390"/>
+      <c r="K37" s="390"/>
+      <c r="L37" s="390"/>
+      <c r="M37" s="390"/>
+      <c r="N37" s="390"/>
+      <c r="O37" s="390"/>
+      <c r="P37" s="390"/>
+      <c r="Q37" s="390"/>
+      <c r="R37" s="390"/>
     </row>
     <row r="38" spans="1:18" ht="17" x14ac:dyDescent="0.35">
       <c r="A38" s="24" t="s">
@@ -17911,21 +17930,21 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="378" t="s">
+      <c r="F48" s="389" t="s">
         <v>100</v>
       </c>
-      <c r="G48" s="378"/>
-      <c r="H48" s="378"/>
-      <c r="I48" s="378"/>
-      <c r="J48" s="378"/>
-      <c r="K48" s="378"/>
-      <c r="L48" s="378"/>
-      <c r="M48" s="378"/>
-      <c r="N48" s="378"/>
-      <c r="O48" s="378"/>
-      <c r="P48" s="378"/>
-      <c r="Q48" s="378"/>
-      <c r="R48" s="378"/>
+      <c r="G48" s="389"/>
+      <c r="H48" s="389"/>
+      <c r="I48" s="389"/>
+      <c r="J48" s="389"/>
+      <c r="K48" s="389"/>
+      <c r="L48" s="389"/>
+      <c r="M48" s="389"/>
+      <c r="N48" s="389"/>
+      <c r="O48" s="389"/>
+      <c r="P48" s="389"/>
+      <c r="Q48" s="389"/>
+      <c r="R48" s="389"/>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A49" s="24" t="s">
@@ -18237,6 +18256,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E6:R6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="H27:T27"/>
     <mergeCell ref="F37:R37"/>
@@ -18245,12 +18270,6 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E6:R6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18289,50 +18308,50 @@
     <row r="3" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:19" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="357" t="s">
+      <c r="A5" s="369" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="358"/>
-      <c r="C5" s="358"/>
-      <c r="D5" s="358"/>
-      <c r="E5" s="358"/>
-      <c r="F5" s="358"/>
-      <c r="G5" s="358"/>
-      <c r="H5" s="358"/>
-      <c r="I5" s="358"/>
-      <c r="J5" s="358"/>
-      <c r="K5" s="358"/>
-      <c r="L5" s="358"/>
-      <c r="M5" s="358"/>
-      <c r="N5" s="358"/>
-      <c r="O5" s="358"/>
-      <c r="P5" s="358"/>
-      <c r="Q5" s="358"/>
-      <c r="R5" s="358"/>
-      <c r="S5" s="358"/>
+      <c r="B5" s="370"/>
+      <c r="C5" s="370"/>
+      <c r="D5" s="370"/>
+      <c r="E5" s="370"/>
+      <c r="F5" s="370"/>
+      <c r="G5" s="370"/>
+      <c r="H5" s="370"/>
+      <c r="I5" s="370"/>
+      <c r="J5" s="370"/>
+      <c r="K5" s="370"/>
+      <c r="L5" s="370"/>
+      <c r="M5" s="370"/>
+      <c r="N5" s="370"/>
+      <c r="O5" s="370"/>
+      <c r="P5" s="370"/>
+      <c r="Q5" s="370"/>
+      <c r="R5" s="370"/>
+      <c r="S5" s="370"/>
     </row>
     <row r="6" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="359" t="s">
+      <c r="A6" s="371" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="359"/>
-      <c r="C6" s="359"/>
-      <c r="D6" s="359"/>
-      <c r="E6" s="359"/>
-      <c r="F6" s="359"/>
-      <c r="G6" s="359"/>
-      <c r="H6" s="359"/>
-      <c r="I6" s="359"/>
-      <c r="J6" s="359"/>
-      <c r="K6" s="359"/>
-      <c r="L6" s="359"/>
-      <c r="M6" s="359"/>
-      <c r="N6" s="359"/>
-      <c r="O6" s="359"/>
-      <c r="P6" s="359"/>
-      <c r="Q6" s="359"/>
-      <c r="R6" s="359"/>
-      <c r="S6" s="359"/>
+      <c r="B6" s="371"/>
+      <c r="C6" s="371"/>
+      <c r="D6" s="371"/>
+      <c r="E6" s="371"/>
+      <c r="F6" s="371"/>
+      <c r="G6" s="371"/>
+      <c r="H6" s="371"/>
+      <c r="I6" s="371"/>
+      <c r="J6" s="371"/>
+      <c r="K6" s="371"/>
+      <c r="L6" s="371"/>
+      <c r="M6" s="371"/>
+      <c r="N6" s="371"/>
+      <c r="O6" s="371"/>
+      <c r="P6" s="371"/>
+      <c r="Q6" s="371"/>
+      <c r="R6" s="371"/>
+      <c r="S6" s="371"/>
     </row>
     <row r="7" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9"/>
@@ -18372,10 +18391,10 @@
       <c r="O8" s="12"/>
       <c r="P8" s="12"/>
       <c r="Q8" s="13"/>
-      <c r="R8" s="360" t="s">
+      <c r="R8" s="372" t="s">
         <v>33</v>
       </c>
-      <c r="S8" s="361"/>
+      <c r="S8" s="373"/>
     </row>
     <row r="9" spans="1:19" s="6" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="10"/>
@@ -21246,10 +21265,10 @@
       <c r="A75" s="10"/>
       <c r="B75" s="10"/>
       <c r="C75" s="10"/>
-      <c r="D75" s="380" t="s">
+      <c r="D75" s="392" t="s">
         <v>41</v>
       </c>
-      <c r="E75" s="381"/>
+      <c r="E75" s="393"/>
       <c r="F75" s="25">
         <v>-75.135000000000005</v>
       </c>
@@ -22521,23 +22540,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:49" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="360" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="349"/>
+      <c r="B1" s="361"/>
       <c r="C1" s="35"/>
       <c r="H1"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="356" t="s">
+      <c r="J1" s="368" t="s">
         <v>274</v>
       </c>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
-      <c r="X1" s="340"/>
-      <c r="Y1" s="340"/>
+      <c r="V1" s="352"/>
+      <c r="W1" s="352"/>
+      <c r="X1" s="352"/>
+      <c r="Y1" s="352"/>
     </row>
     <row r="2" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="362" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="126"/>
@@ -22545,68 +22564,68 @@
         <v>190</v>
       </c>
       <c r="I2" s="241"/>
-      <c r="J2" s="356"/>
+      <c r="J2" s="368"/>
     </row>
     <row r="3" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A3" s="351"/>
+      <c r="A3" s="363"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="I3" s="241"/>
-      <c r="J3" s="356"/>
+      <c r="J3" s="368"/>
     </row>
     <row r="4" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A4" s="351"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="A5" s="352"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:49" x14ac:dyDescent="0.35">
-      <c r="C7" s="353" t="s">
+      <c r="C7" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="365" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="355"/>
-      <c r="K7" s="353" t="s">
+      <c r="H7" s="366"/>
+      <c r="I7" s="366"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="365" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="354"/>
-      <c r="O7" s="353" t="s">
+      <c r="L7" s="366"/>
+      <c r="M7" s="366"/>
+      <c r="N7" s="366"/>
+      <c r="O7" s="365" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="354"/>
-      <c r="Q7" s="354"/>
-      <c r="R7" s="354"/>
-      <c r="S7" s="353" t="s">
+      <c r="P7" s="366"/>
+      <c r="Q7" s="366"/>
+      <c r="R7" s="366"/>
+      <c r="S7" s="365" t="s">
         <v>268</v>
       </c>
-      <c r="T7" s="354"/>
-      <c r="U7" s="354"/>
-      <c r="V7" s="354"/>
-      <c r="W7" s="353" t="s">
+      <c r="T7" s="366"/>
+      <c r="U7" s="366"/>
+      <c r="V7" s="366"/>
+      <c r="W7" s="365" t="s">
         <v>269</v>
       </c>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="354"/>
+      <c r="X7" s="366"/>
+      <c r="Y7" s="366"/>
+      <c r="Z7" s="366"/>
       <c r="AA7" s="222" t="s">
         <v>270</v>
       </c>
@@ -23913,87 +23932,87 @@
       </c>
       <c r="G21" s="149">
         <f>main!O112/1000</f>
-        <v>178.30281690641254</v>
+        <v>164.11099999999999</v>
       </c>
       <c r="H21" s="104">
         <f>main!P112/1000</f>
-        <v>180.08208413464209</v>
+        <v>180.4743832661581</v>
       </c>
       <c r="I21" s="104">
         <f>main!Q112/1000</f>
-        <v>180.08208413464209</v>
+        <v>180.4743832661581</v>
       </c>
       <c r="J21" s="104">
         <f>main!R112/1000</f>
-        <v>180.08208413464209</v>
+        <v>180.4743832661581</v>
       </c>
       <c r="K21" s="149">
         <f>main!S112/1000</f>
-        <v>180.08208413464209</v>
+        <v>180.4743832661581</v>
       </c>
       <c r="L21" s="104">
         <f>main!T112/1000</f>
-        <v>221.63948816571326</v>
+        <v>222.12231786604073</v>
       </c>
       <c r="M21" s="223">
         <f>main!U112/1000</f>
-        <v>221.63948816571326</v>
+        <v>222.12231786604073</v>
       </c>
       <c r="N21" s="104">
         <f>M21*(1+N23)</f>
-        <v>222.38398180893648</v>
+        <v>222.86843334861047</v>
       </c>
       <c r="O21" s="149">
         <f t="shared" ref="O21:AA21" si="0">N21*(1+O23)</f>
-        <v>219.97510963898978</v>
+        <v>220.45431358024359</v>
       </c>
       <c r="P21" s="104">
         <f t="shared" si="0"/>
-        <v>217.56623746904305</v>
+        <v>218.04019381187672</v>
       </c>
       <c r="Q21" s="104">
         <f t="shared" si="0"/>
-        <v>215.15736529909628</v>
+        <v>215.62607404350982</v>
       </c>
       <c r="R21" s="104">
         <f t="shared" si="0"/>
-        <v>212.74849312914955</v>
+        <v>213.21195427514294</v>
       </c>
       <c r="S21" s="149">
         <f t="shared" si="0"/>
-        <v>214.00672523264217</v>
+        <v>214.47292736957766</v>
       </c>
       <c r="T21" s="104">
         <f t="shared" si="0"/>
-        <v>215.26495733613447</v>
+        <v>215.73390046401204</v>
       </c>
       <c r="U21" s="104">
         <f t="shared" si="0"/>
-        <v>216.52318943962678</v>
+        <v>216.99487355844644</v>
       </c>
       <c r="V21" s="104">
         <f t="shared" si="0"/>
-        <v>217.78142154311922</v>
+        <v>218.25584665288099</v>
       </c>
       <c r="W21" s="149">
         <f t="shared" si="0"/>
-        <v>221.01783327030435</v>
+        <v>221.49930872888845</v>
       </c>
       <c r="X21" s="104">
         <f t="shared" si="0"/>
-        <v>224.25424499748971</v>
+        <v>224.74277080489614</v>
       </c>
       <c r="Y21" s="104">
         <f t="shared" si="0"/>
-        <v>227.49065672467472</v>
+        <v>227.98623288090351</v>
       </c>
       <c r="Z21" s="104">
         <f t="shared" si="0"/>
-        <v>230.72706845185994</v>
+        <v>231.22969495691106</v>
       </c>
       <c r="AA21" s="149">
         <f t="shared" si="0"/>
-        <v>233.95007172417809</v>
+        <v>234.45971936845402</v>
       </c>
       <c r="AB21" s="95"/>
     </row>
@@ -24183,87 +24202,87 @@
       </c>
       <c r="G24" s="150">
         <f t="shared" ref="G24" si="17">G21-G22</f>
-        <v>8.0958169064125514</v>
+        <v>-6.0960000000000036</v>
       </c>
       <c r="H24" s="217">
         <f t="shared" ref="H24" si="18">H21-H22</f>
-        <v>15.945084134642201</v>
+        <v>16.337383266158213</v>
       </c>
       <c r="I24" s="217">
         <f t="shared" ref="I24" si="19">I21-I22</f>
-        <v>11.798701344421289</v>
+        <v>12.191000475937301</v>
       </c>
       <c r="J24" s="217">
         <f t="shared" ref="J24" si="20">J21-J22</f>
-        <v>7.6523185542003773</v>
+        <v>8.0446176857163891</v>
       </c>
       <c r="K24" s="150">
         <f t="shared" ref="K24:AA24" si="21">K21-K22</f>
-        <v>7.0672258031208912</v>
+        <v>7.459524934636903</v>
       </c>
       <c r="L24" s="217">
         <f t="shared" si="21"/>
-        <v>48.039537083112549</v>
+        <v>48.52236678344002</v>
       </c>
       <c r="M24" s="239">
         <f t="shared" si="21"/>
-        <v>47.454444332033063</v>
+        <v>47.937274032360534</v>
       </c>
       <c r="N24" s="217">
         <f t="shared" si="21"/>
-        <v>47.613845224176771</v>
+        <v>48.098296763850755</v>
       </c>
       <c r="O24" s="150">
         <f t="shared" si="21"/>
-        <v>47.098090151658965</v>
+        <v>47.57729409291278</v>
       </c>
       <c r="P24" s="217">
         <f t="shared" si="21"/>
-        <v>46.582335079141131</v>
+        <v>47.056291421974805</v>
       </c>
       <c r="Q24" s="217">
         <f t="shared" si="21"/>
-        <v>46.066580006623298</v>
+        <v>46.53528875103683</v>
       </c>
       <c r="R24" s="217">
         <f t="shared" si="21"/>
-        <v>45.550824934105464</v>
+        <v>46.014286080098856</v>
       </c>
       <c r="S24" s="150">
         <f t="shared" si="21"/>
-        <v>45.820220544996459</v>
+        <v>46.286422681931953</v>
       </c>
       <c r="T24" s="217">
         <f t="shared" si="21"/>
-        <v>46.08961615588737</v>
+        <v>46.558559283764936</v>
       </c>
       <c r="U24" s="217">
         <f t="shared" si="21"/>
-        <v>46.359011766778281</v>
+        <v>46.830695885597947</v>
       </c>
       <c r="V24" s="217">
         <f t="shared" si="21"/>
-        <v>46.62840737766922</v>
+        <v>47.102832487430987</v>
       </c>
       <c r="W24" s="150">
         <f t="shared" si="21"/>
-        <v>47.321344008295341</v>
+        <v>47.802819466879441</v>
       </c>
       <c r="X24" s="217">
         <f t="shared" si="21"/>
-        <v>48.01428063892152</v>
+        <v>48.502806446327952</v>
       </c>
       <c r="Y24" s="217">
         <f t="shared" si="21"/>
-        <v>48.707217269547613</v>
+        <v>49.202793425776406</v>
       </c>
       <c r="Z24" s="217">
         <f t="shared" si="21"/>
-        <v>49.400153900173734</v>
+        <v>49.90278040522486</v>
       </c>
       <c r="AA24" s="150">
         <f t="shared" si="21"/>
-        <v>50.090219694107674</v>
+        <v>50.599867338383604</v>
       </c>
       <c r="AB24" s="244"/>
     </row>
@@ -24359,7 +24378,7 @@
       </c>
       <c r="H28" s="104">
         <f>main!O113/1000</f>
-        <v>205.47077000000002</v>
+        <v>205.911</v>
       </c>
       <c r="I28" s="104">
         <f>main!P113/1000</f>
@@ -24632,7 +24651,7 @@
       </c>
       <c r="H31" s="217">
         <f t="shared" ref="H31" si="41">H28-H29</f>
-        <v>-11.329229999999995</v>
+        <v>-10.88900000000001</v>
       </c>
       <c r="I31" s="217">
         <f t="shared" ref="I31" si="42">I28-I29</f>
@@ -25316,83 +25335,83 @@
       </c>
       <c r="H47" s="104">
         <f>main!O95/1000</f>
-        <v>1390.6101625906522</v>
+        <v>1403.2670000000001</v>
       </c>
       <c r="I47" s="104">
         <f>main!P95/1000</f>
-        <v>1418.489158978964</v>
+        <v>1416.53969581915</v>
       </c>
       <c r="J47" s="223">
         <f>main!Q95/1000</f>
-        <v>1441.5834808422039</v>
+        <v>1439.5964710763503</v>
       </c>
       <c r="K47" s="149">
         <f>J47*(1+K49)</f>
-        <v>1473.0268768819492</v>
+        <v>1470.9965270419113</v>
       </c>
       <c r="L47" s="104">
         <f t="shared" ref="L47:AA47" si="50">K47*(1+L49)</f>
-        <v>1504.4702729216931</v>
+        <v>1502.3965830074708</v>
       </c>
       <c r="M47" s="104">
         <f t="shared" si="50"/>
-        <v>1535.9136689614381</v>
+        <v>1533.7966389730316</v>
       </c>
       <c r="N47" s="104">
         <f t="shared" si="50"/>
-        <v>1567.3570650011823</v>
+        <v>1565.1966949385912</v>
       </c>
       <c r="O47" s="149">
         <f t="shared" si="50"/>
-        <v>1580.6895805420113</v>
+        <v>1578.5108335772602</v>
       </c>
       <c r="P47" s="104">
         <f t="shared" si="50"/>
-        <v>1594.0220960828426</v>
+        <v>1591.8249722159314</v>
       </c>
       <c r="Q47" s="104">
         <f t="shared" si="50"/>
-        <v>1607.3546116236716</v>
+        <v>1605.1391108546004</v>
       </c>
       <c r="R47" s="104">
         <f t="shared" si="50"/>
-        <v>1620.6871271645016</v>
+        <v>1618.4532494932703</v>
       </c>
       <c r="S47" s="149">
         <f t="shared" si="50"/>
-        <v>1631.6773524648111</v>
+        <v>1629.4283263923317</v>
       </c>
       <c r="T47" s="104">
         <f t="shared" si="50"/>
-        <v>1642.6675777651208</v>
+        <v>1640.403403291393</v>
       </c>
       <c r="U47" s="104">
         <f t="shared" si="50"/>
-        <v>1653.6578030654305</v>
+        <v>1651.3784801904544</v>
       </c>
       <c r="V47" s="104">
         <f t="shared" si="50"/>
-        <v>1664.6480283657397</v>
+        <v>1662.3535570895153</v>
       </c>
       <c r="W47" s="149">
         <f t="shared" si="50"/>
-        <v>1705.6654323951707</v>
+        <v>1703.314424689763</v>
       </c>
       <c r="X47" s="104">
         <f t="shared" si="50"/>
-        <v>1746.6828364246021</v>
+        <v>1744.2752922900111</v>
       </c>
       <c r="Y47" s="104">
         <f t="shared" si="50"/>
-        <v>1787.7002404540322</v>
+        <v>1785.236159890258</v>
       </c>
       <c r="Z47" s="104">
         <f t="shared" si="50"/>
-        <v>1828.7176444834631</v>
+        <v>1826.1970274905057</v>
       </c>
       <c r="AA47" s="149">
         <f t="shared" si="50"/>
-        <v>1859.2880041522844</v>
+        <v>1856.7252504367475</v>
       </c>
       <c r="AB47" s="95"/>
     </row>
@@ -25595,83 +25614,83 @@
       </c>
       <c r="H50" s="217">
         <f t="shared" ref="H50" si="71">H47-H48</f>
-        <v>-12.65283740934774</v>
+        <v>4.0000000001327862E-3</v>
       </c>
       <c r="I50" s="217">
         <f t="shared" ref="I50" si="72">I47-I48</f>
-        <v>23.849631860713998</v>
+        <v>21.90016870089994</v>
       </c>
       <c r="J50" s="239">
         <f t="shared" ref="J50" si="73">J47-J48</f>
-        <v>55.567426605703986</v>
+        <v>53.580416839850386</v>
       </c>
       <c r="K50" s="150">
         <f t="shared" ref="K50:AA50" si="74">K47-K48</f>
-        <v>56.779447015824189</v>
+        <v>54.749097175786346</v>
       </c>
       <c r="L50" s="217">
         <f t="shared" si="74"/>
-        <v>57.991467425944165</v>
+        <v>55.917777511721852</v>
       </c>
       <c r="M50" s="217">
         <f t="shared" si="74"/>
-        <v>59.203487836064141</v>
+        <v>57.086457847657584</v>
       </c>
       <c r="N50" s="217">
         <f t="shared" si="74"/>
-        <v>60.415508246184345</v>
+        <v>58.255138183593317</v>
       </c>
       <c r="O50" s="150">
         <f t="shared" si="74"/>
-        <v>60.929424775216376</v>
+        <v>58.750677810465277</v>
       </c>
       <c r="P50" s="217">
         <f t="shared" si="74"/>
-        <v>61.443341304248634</v>
+        <v>59.246217437337464</v>
       </c>
       <c r="Q50" s="217">
         <f t="shared" si="74"/>
-        <v>61.957257833280664</v>
+        <v>59.741757064209423</v>
       </c>
       <c r="R50" s="217">
         <f t="shared" si="74"/>
-        <v>62.471174362312695</v>
+        <v>60.237296691081383</v>
       </c>
       <c r="S50" s="150">
         <f t="shared" si="74"/>
-        <v>62.894804728414101</v>
+        <v>60.645778655934691</v>
       </c>
       <c r="T50" s="217">
         <f t="shared" si="74"/>
-        <v>63.318435094515735</v>
+        <v>61.054260620788</v>
       </c>
       <c r="U50" s="217">
         <f t="shared" si="74"/>
-        <v>63.742065460617368</v>
+        <v>61.462742585641308</v>
       </c>
       <c r="V50" s="217">
         <f t="shared" si="74"/>
-        <v>64.165695826718775</v>
+        <v>61.871224550494389</v>
       </c>
       <c r="W50" s="150">
         <f t="shared" si="74"/>
-        <v>65.74675694336679</v>
+        <v>63.39574923795908</v>
       </c>
       <c r="X50" s="217">
         <f t="shared" si="74"/>
-        <v>67.327818060015034</v>
+        <v>64.920273925423999</v>
       </c>
       <c r="Y50" s="217">
         <f t="shared" si="74"/>
-        <v>68.908879176663049</v>
+        <v>66.444798612888917</v>
       </c>
       <c r="Z50" s="217">
         <f t="shared" si="74"/>
-        <v>70.489940293311065</v>
+        <v>67.969323300353608</v>
       </c>
       <c r="AA50" s="150">
         <f t="shared" si="74"/>
-        <v>71.668308552785447</v>
+        <v>69.105554837248519</v>
       </c>
       <c r="AB50" s="244"/>
     </row>
@@ -26228,7 +26247,7 @@
       </c>
       <c r="H61" s="104">
         <f>main!O54/1000</f>
-        <v>853.25025000000005</v>
+        <v>404.85399999999998</v>
       </c>
       <c r="I61" s="104">
         <f>main!P54/1000</f>
@@ -26501,7 +26520,7 @@
       </c>
       <c r="H64" s="217">
         <f t="shared" si="103"/>
-        <v>450.95025000000004</v>
+        <v>2.5539999999999736</v>
       </c>
       <c r="I64" s="217">
         <f t="shared" si="103"/>
@@ -27072,7 +27091,7 @@
   <dimension ref="A1:P24"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
@@ -27249,7 +27268,7 @@
         <v>44196</v>
       </c>
       <c r="B4">
-        <v>8.0958169064125514</v>
+        <v>-6.0960000000000036</v>
       </c>
       <c r="C4">
         <v>-61.292000000000002</v>
@@ -27301,10 +27320,10 @@
         <v>44286</v>
       </c>
       <c r="B5">
-        <v>15.945084134642201</v>
+        <v>16.337383266158213</v>
       </c>
       <c r="C5">
-        <v>-11.329229999999995</v>
+        <v>-10.88900000000001</v>
       </c>
       <c r="D5">
         <v>-27.260999999999967</v>
@@ -27313,13 +27332,13 @@
         <v>-1.9565613146719585</v>
       </c>
       <c r="F5">
-        <v>-12.65283740934774</v>
+        <v>4.0000000001327862E-3</v>
       </c>
       <c r="G5">
         <v>1309.4238025000002</v>
       </c>
       <c r="H5">
-        <v>450.95025000000004</v>
+        <v>2.5539999999999736</v>
       </c>
       <c r="I5">
         <v>61.90180399999997</v>
@@ -27354,7 +27373,7 @@
         <v>44377</v>
       </c>
       <c r="B6">
-        <v>11.798701344421289</v>
+        <v>12.191000475937301</v>
       </c>
       <c r="C6">
         <v>-15.253798527921759</v>
@@ -27366,7 +27385,7 @@
         <v>-1.9766185999319106</v>
       </c>
       <c r="F6">
-        <v>23.849631860713998</v>
+        <v>21.90016870089994</v>
       </c>
       <c r="G6">
         <v>245.4925168769189</v>
@@ -27405,7 +27424,7 @@
         <v>44469</v>
       </c>
       <c r="B7">
-        <v>7.6523185542003773</v>
+        <v>8.0446176857163891</v>
       </c>
       <c r="C7">
         <v>-3.9853764337182724</v>
@@ -27417,7 +27436,7 @@
         <v>-2.0052360480081433</v>
       </c>
       <c r="F7">
-        <v>55.567426605703986</v>
+        <v>53.580416839850386</v>
       </c>
       <c r="G7">
         <v>184.80221870982382</v>
@@ -27456,7 +27475,7 @@
         <v>44561</v>
       </c>
       <c r="B8">
-        <v>7.0672258031208912</v>
+        <v>7.459524934636903</v>
       </c>
       <c r="C8">
         <v>-6.1647437995782752</v>
@@ -27468,7 +27487,7 @@
         <v>-2.0318925382844242</v>
       </c>
       <c r="F8">
-        <v>56.779447015824189</v>
+        <v>54.749097175786346</v>
       </c>
       <c r="G8">
         <v>168.7715747900852</v>
@@ -27507,7 +27526,7 @@
         <v>44651</v>
       </c>
       <c r="B9">
-        <v>48.039537083112549</v>
+        <v>48.52236678344002</v>
       </c>
       <c r="C9">
         <v>-8.0025135083951398</v>
@@ -27519,7 +27538,7 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>57.991467425944165</v>
+        <v>55.917777511721852</v>
       </c>
       <c r="G9">
         <v>168.92115468914358</v>
@@ -27558,7 +27577,7 @@
         <v>44742</v>
       </c>
       <c r="B10">
-        <v>47.454444332033063</v>
+        <v>47.937274032360534</v>
       </c>
       <c r="C10">
         <v>-8.1358115154851305</v>
@@ -27570,7 +27589,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>59.203487836064141</v>
+        <v>57.086457847657584</v>
       </c>
       <c r="G10">
         <v>168.28713733479617</v>
@@ -27609,7 +27628,7 @@
         <v>44834</v>
       </c>
       <c r="B11">
-        <v>47.613845224176771</v>
+        <v>48.098296763850755</v>
       </c>
       <c r="C11">
         <v>-8.1776661628989018</v>
@@ -27621,7 +27640,7 @@
         <v>0</v>
       </c>
       <c r="F11">
-        <v>60.415508246184345</v>
+        <v>58.255138183593317</v>
       </c>
       <c r="G11">
         <v>166.48062816995434</v>
@@ -27660,7 +27679,7 @@
         <v>44926</v>
       </c>
       <c r="B12">
-        <v>47.098090151658965</v>
+        <v>47.57729409291278</v>
       </c>
       <c r="C12">
         <v>-8.5862851488537615</v>
@@ -27672,7 +27691,7 @@
         <v>0</v>
       </c>
       <c r="F12">
-        <v>60.929424775216376</v>
+        <v>58.750677810465277</v>
       </c>
       <c r="G12">
         <v>168.62534824212094</v>
@@ -27711,7 +27730,7 @@
         <v>45016</v>
       </c>
       <c r="B13">
-        <v>46.582335079141131</v>
+        <v>47.056291421974805</v>
       </c>
       <c r="C13">
         <v>-8.9951372198217712</v>
@@ -27723,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="F13">
-        <v>61.443341304248634</v>
+        <v>59.246217437337464</v>
       </c>
       <c r="G13">
         <v>169.74356938095775</v>
@@ -27760,7 +27779,7 @@
         <v>45107</v>
       </c>
       <c r="B14">
-        <v>46.066580006623298</v>
+        <v>46.53528875103683</v>
       </c>
       <c r="C14">
         <v>-9.4042229585155326</v>
@@ -27772,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="F14">
-        <v>61.957257833280664</v>
+        <v>59.741757064209423</v>
       </c>
       <c r="G14">
         <v>170.13720482098574</v>
@@ -27802,7 +27821,7 @@
         <v>45199</v>
       </c>
       <c r="B15">
-        <v>45.550824934105464</v>
+        <v>46.014286080098856</v>
       </c>
       <c r="C15">
         <v>-10.174728012378409</v>
@@ -27814,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>62.471174362312695</v>
+        <v>60.237296691081383</v>
       </c>
       <c r="G15">
         <v>169.69779297530022</v>
@@ -27844,7 +27863,7 @@
         <v>45291</v>
       </c>
       <c r="B16">
-        <v>45.820220544996459</v>
+        <v>46.286422681931953</v>
       </c>
       <c r="C16">
         <v>-10.481366564078854</v>
@@ -27856,7 +27875,7 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>62.894804728414101</v>
+        <v>60.645778655934691</v>
       </c>
       <c r="G16">
         <v>170.55624736271193</v>
@@ -27886,7 +27905,7 @@
         <v>45382</v>
       </c>
       <c r="B17">
-        <v>46.08961615588737</v>
+        <v>46.558559283764936</v>
       </c>
       <c r="C17">
         <v>-10.804259404107256</v>
@@ -27898,7 +27917,7 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>63.318435094515735</v>
+        <v>61.054260620788</v>
       </c>
       <c r="G17">
         <v>171.52051640171408</v>
@@ -27928,7 +27947,7 @@
         <v>45473</v>
       </c>
       <c r="B18">
-        <v>46.359011766778281</v>
+        <v>46.830695885597947</v>
       </c>
       <c r="C18">
         <v>-11.141928869888432</v>
@@ -27940,7 +27959,7 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>63.742065460617368</v>
+        <v>61.462742585641308</v>
       </c>
       <c r="G18">
         <v>172.44063678295106</v>
@@ -27970,7 +27989,7 @@
         <v>45565</v>
       </c>
       <c r="B19">
-        <v>46.62840737766922</v>
+        <v>47.102832487430987</v>
       </c>
       <c r="C19">
         <v>-11.458911059615787</v>
@@ -27982,7 +28001,7 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>64.165695826718775</v>
+        <v>61.871224550494389</v>
       </c>
       <c r="G19">
         <v>173.42008081117865</v>
@@ -28012,7 +28031,7 @@
         <v>45657</v>
       </c>
       <c r="B20">
-        <v>47.321344008295341</v>
+        <v>47.802819466879441</v>
       </c>
       <c r="C20">
         <v>-11.494732358093188</v>
@@ -28024,7 +28043,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>65.74675694336679</v>
+        <v>63.39574923795908</v>
       </c>
       <c r="G20">
         <v>177.4518963720202</v>
@@ -28054,7 +28073,7 @@
         <v>45747</v>
       </c>
       <c r="B21">
-        <v>48.01428063892152</v>
+        <v>48.502806446327952</v>
       </c>
       <c r="C21">
         <v>-11.529075993995264</v>
@@ -28066,7 +28085,7 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <v>67.327818060015034</v>
+        <v>64.920273925423999</v>
       </c>
       <c r="G21">
         <v>180.85881900115442</v>
@@ -28096,7 +28115,7 @@
         <v>45838</v>
       </c>
       <c r="B22">
-        <v>48.707217269547613</v>
+        <v>49.202793425776406</v>
       </c>
       <c r="C22">
         <v>-11.56194196732207</v>
@@ -28108,7 +28127,7 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <v>68.908879176663049</v>
+        <v>66.444798612888917</v>
       </c>
       <c r="G22">
         <v>183.48112379736654</v>
@@ -28138,7 +28157,7 @@
         <v>45930</v>
       </c>
       <c r="B23">
-        <v>49.400153900173734</v>
+        <v>49.90278040522486</v>
       </c>
       <c r="C23">
         <v>-11.594807940648877</v>
@@ -28150,7 +28169,7 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <v>70.489940293311065</v>
+        <v>67.969323300353608</v>
       </c>
       <c r="G23">
         <v>185.39454849432309</v>
@@ -28180,7 +28199,7 @@
         <v>46022</v>
       </c>
       <c r="B24">
-        <v>50.090219694107674</v>
+        <v>50.599867338383604</v>
       </c>
       <c r="C24">
         <v>-11.629429434809026</v>
@@ -28192,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <v>71.668308552785447</v>
+        <v>69.105554837248519</v>
       </c>
       <c r="G24">
         <v>186.28741412573436</v>
@@ -28237,36 +28256,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.35">
-      <c r="D1" s="340" t="s">
+      <c r="D1" s="352" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="340"/>
-      <c r="F1" s="340"/>
-      <c r="G1" s="340"/>
-      <c r="H1" s="340" t="s">
+      <c r="E1" s="352"/>
+      <c r="F1" s="352"/>
+      <c r="G1" s="352"/>
+      <c r="H1" s="352" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="340"/>
-      <c r="J1" s="340"/>
-      <c r="K1" s="340"/>
-      <c r="L1" s="340" t="s">
+      <c r="I1" s="352"/>
+      <c r="J1" s="352"/>
+      <c r="K1" s="352"/>
+      <c r="L1" s="352" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="340"/>
-      <c r="N1" s="340"/>
-      <c r="O1" s="340"/>
-      <c r="P1" s="340" t="s">
+      <c r="M1" s="352"/>
+      <c r="N1" s="352"/>
+      <c r="O1" s="352"/>
+      <c r="P1" s="352" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="340"/>
-      <c r="R1" s="340"/>
-      <c r="S1" s="340"/>
-      <c r="T1" s="340" t="s">
+      <c r="Q1" s="352"/>
+      <c r="R1" s="352"/>
+      <c r="S1" s="352"/>
+      <c r="T1" s="352" t="s">
         <v>260</v>
       </c>
-      <c r="U1" s="340"/>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
+      <c r="U1" s="352"/>
+      <c r="V1" s="352"/>
+      <c r="W1" s="352"/>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.35">
       <c r="D2" s="197" t="s">
@@ -28372,31 +28391,31 @@
       </c>
       <c r="M3" s="255">
         <f>main!O34</f>
-        <v>3270456.7169724014</v>
+        <v>5166912</v>
       </c>
       <c r="N3" s="255">
         <f>main!P34</f>
-        <v>2708796.7165770018</v>
+        <v>2705730.7097351807</v>
       </c>
       <c r="O3" s="255">
         <f>main!Q34</f>
-        <v>2611509.6718853824</v>
+        <v>2608406.1184375221</v>
       </c>
       <c r="P3" s="255">
         <f>main!R34</f>
-        <v>2678465.9441347551</v>
+        <v>2675260.9058893258</v>
       </c>
       <c r="Q3" s="255">
         <f>main!S34</f>
-        <v>2735176.6542439447</v>
+        <v>2731866.8126938515</v>
       </c>
       <c r="R3" s="255">
         <f>main!T34</f>
-        <v>2793300.2519227522</v>
+        <v>2789882.180047215</v>
       </c>
       <c r="S3" s="255">
         <f>main!U34</f>
-        <v>2852876.3150512893</v>
+        <v>2849346.4737674939</v>
       </c>
       <c r="T3" s="255">
         <f>main!V34</f>
@@ -28449,47 +28468,47 @@
       </c>
       <c r="M4" s="213">
         <f>main!O35</f>
-        <v>883132.91447240114</v>
+        <v>880104</v>
       </c>
       <c r="N4" s="213">
         <f>main!P35</f>
-        <v>905947.84259575198</v>
+        <v>902881.83575393062</v>
       </c>
       <c r="O4" s="213">
         <f>main!Q35</f>
-        <v>929042.16445899184</v>
+        <v>925938.6110111312</v>
       </c>
       <c r="P4" s="213">
         <f>main!R35</f>
-        <v>971421.42409696849</v>
+        <v>968216.38585153921</v>
       </c>
       <c r="Q4" s="213">
         <f>main!S35</f>
-        <v>1003186.4664055918</v>
+        <v>999876.62485549843</v>
       </c>
       <c r="R4" s="213">
         <f>main!T35</f>
-        <v>1035990.2112668242</v>
+        <v>1032572.1393912865</v>
       </c>
       <c r="S4" s="213">
         <f>main!U35</f>
-        <v>1069866.6237855225</v>
+        <v>1066336.7825017269</v>
       </c>
       <c r="T4" s="213">
         <f>main!V35</f>
-        <v>1080647.7677858607</v>
+        <v>1077082.3559680069</v>
       </c>
       <c r="U4" s="213">
         <f>main!W35</f>
-        <v>1091537.5543621723</v>
+        <v>1087936.2135627293</v>
       </c>
       <c r="V4" s="213">
         <f>main!X35</f>
-        <v>1102537.0783156503</v>
+        <v>1098899.4464749785</v>
       </c>
       <c r="W4" s="213">
         <f>main!Y35</f>
-        <v>1113647.4454798999</v>
+        <v>1109973.1568898512</v>
       </c>
       <c r="AJ4" s="233"/>
     </row>
@@ -28535,35 +28554,35 @@
       </c>
       <c r="M5" s="262">
         <f>main!O97</f>
-        <v>831250.83502466371</v>
+        <v>833185</v>
       </c>
       <c r="N5" s="262">
         <f>main!P97</f>
-        <v>838457.84744285408</v>
+        <v>839966.69025637733</v>
       </c>
       <c r="O5" s="262">
         <f>main!Q97</f>
-        <v>839187.01967747905</v>
+        <v>840695.86249100231</v>
       </c>
       <c r="P5" s="262">
         <f>main!R97</f>
-        <v>840286.24682117626</v>
+        <v>841795.08963469951</v>
       </c>
       <c r="Q5" s="262">
         <f>main!S97</f>
-        <v>841762.8752842095</v>
+        <v>843271.71809773275</v>
       </c>
       <c r="R5" s="262">
         <f>main!T97</f>
-        <v>843107.97501111636</v>
+        <v>844616.81782463961</v>
       </c>
       <c r="S5" s="262">
         <f>main!U97</f>
-        <v>844539.45728929248</v>
+        <v>846048.30010281573</v>
       </c>
       <c r="T5" s="262">
         <f>main!V97</f>
-        <v>846032.64138980373</v>
+        <v>847541.48420332698</v>
       </c>
       <c r="U5" s="262"/>
       <c r="V5" s="262"/>
@@ -28612,35 +28631,35 @@
       </c>
       <c r="M6" s="35">
         <f>main!O100</f>
-        <v>685780.06502466369</v>
+        <v>687274</v>
       </c>
       <c r="N6" s="35">
         <f>main!P100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="O6" s="35">
         <f>main!Q100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="P6" s="35">
         <f>main!R100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="Q6" s="35">
         <f>main!S100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="R6" s="35">
         <f>main!T100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="S6" s="35">
         <f>main!U100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
       <c r="T6" s="35">
         <f>main!V100</f>
-        <v>692623.40051785414</v>
+        <v>694132.24333137739</v>
       </c>
     </row>
   </sheetData>
@@ -28676,22 +28695,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="348" t="s">
+      <c r="A1" s="360" t="s">
         <v>203</v>
       </c>
-      <c r="B1" s="349"/>
+      <c r="B1" s="361"/>
       <c r="C1" s="35"/>
       <c r="I1" s="240"/>
-      <c r="J1" s="356" t="s">
+      <c r="J1" s="368" t="s">
         <v>274</v>
       </c>
-      <c r="V1" s="340"/>
-      <c r="W1" s="340"/>
-      <c r="X1" s="340"/>
-      <c r="Y1" s="340"/>
+      <c r="V1" s="352"/>
+      <c r="W1" s="352"/>
+      <c r="X1" s="352"/>
+      <c r="Y1" s="352"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A2" s="350" t="s">
+      <c r="A2" s="362" t="s">
         <v>189</v>
       </c>
       <c r="B2" s="126"/>
@@ -28700,20 +28719,20 @@
       </c>
       <c r="H2" s="95"/>
       <c r="I2" s="241"/>
-      <c r="J2" s="356"/>
+      <c r="J2" s="368"/>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A3" s="351"/>
+      <c r="A3" s="363"/>
       <c r="B3" s="127"/>
       <c r="C3" t="s">
         <v>191</v>
       </c>
       <c r="H3" s="95"/>
       <c r="I3" s="241"/>
-      <c r="J3" s="356"/>
+      <c r="J3" s="368"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A4" s="351"/>
+      <c r="A4" s="363"/>
       <c r="B4" s="128"/>
       <c r="C4" t="s">
         <v>192</v>
@@ -28723,7 +28742,7 @@
       <c r="J4" s="95"/>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="A5" s="352"/>
+      <c r="A5" s="364"/>
       <c r="B5" s="129"/>
       <c r="C5" t="s">
         <v>179</v>
@@ -28738,42 +28757,42 @@
       <c r="J6" s="95"/>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.35">
-      <c r="C7" s="353" t="s">
+      <c r="C7" s="365" t="s">
         <v>159</v>
       </c>
-      <c r="D7" s="354"/>
-      <c r="E7" s="354"/>
-      <c r="F7" s="355"/>
-      <c r="G7" s="353" t="s">
+      <c r="D7" s="366"/>
+      <c r="E7" s="366"/>
+      <c r="F7" s="367"/>
+      <c r="G7" s="365" t="s">
         <v>163</v>
       </c>
-      <c r="H7" s="354"/>
-      <c r="I7" s="354"/>
-      <c r="J7" s="355"/>
-      <c r="K7" s="353" t="s">
+      <c r="H7" s="366"/>
+      <c r="I7" s="366"/>
+      <c r="J7" s="367"/>
+      <c r="K7" s="365" t="s">
         <v>174</v>
       </c>
-      <c r="L7" s="354"/>
-      <c r="M7" s="354"/>
-      <c r="N7" s="354"/>
-      <c r="O7" s="353" t="s">
+      <c r="L7" s="366"/>
+      <c r="M7" s="366"/>
+      <c r="N7" s="366"/>
+      <c r="O7" s="365" t="s">
         <v>264</v>
       </c>
-      <c r="P7" s="354"/>
-      <c r="Q7" s="354"/>
-      <c r="R7" s="354"/>
-      <c r="S7" s="353" t="s">
+      <c r="P7" s="366"/>
+      <c r="Q7" s="366"/>
+      <c r="R7" s="366"/>
+      <c r="S7" s="365" t="s">
         <v>268</v>
       </c>
-      <c r="T7" s="354"/>
-      <c r="U7" s="354"/>
-      <c r="V7" s="354"/>
-      <c r="W7" s="353" t="s">
+      <c r="T7" s="366"/>
+      <c r="U7" s="366"/>
+      <c r="V7" s="366"/>
+      <c r="W7" s="365" t="s">
         <v>269</v>
       </c>
-      <c r="X7" s="354"/>
-      <c r="Y7" s="354"/>
-      <c r="Z7" s="354"/>
+      <c r="X7" s="366"/>
+      <c r="Y7" s="366"/>
+      <c r="Z7" s="366"/>
       <c r="AA7" s="222" t="s">
         <v>270</v>
       </c>
@@ -29798,83 +29817,83 @@
       </c>
       <c r="H24" s="102">
         <f>main_nipas!M6/1000</f>
-        <v>685.78006502466371</v>
+        <v>687.274</v>
       </c>
       <c r="I24" s="102">
         <f>main_nipas!N6/1000</f>
-        <v>692.62340051785418</v>
+        <v>694.13224333137737</v>
       </c>
       <c r="J24" s="102">
         <f>main_nipas!O6/1000</f>
-        <v>692.62340051785418</v>
+        <v>694.13224333137737</v>
       </c>
       <c r="K24" s="149">
         <f>main_nipas!P6/1000</f>
-        <v>692.62340051785418</v>
+        <v>694.13224333137737</v>
       </c>
       <c r="L24" s="102">
         <f>main_nipas!Q6/1000</f>
-        <v>692.62340051785418</v>
+        <v>694.13224333137737</v>
       </c>
       <c r="M24" s="102">
         <f>main_nipas!R6/1000</f>
-        <v>692.62340051785418</v>
+        <v>694.13224333137737</v>
       </c>
       <c r="N24" s="102">
         <f>M24*(1+N26)</f>
-        <v>685.51705518216204</v>
+        <v>687.01041720470687</v>
       </c>
       <c r="O24" s="149">
         <f t="shared" ref="O24:AA24" si="0">N24*(1+O26)</f>
-        <v>678.48045478830738</v>
+        <v>679.95848795547715</v>
       </c>
       <c r="P24" s="102">
         <f t="shared" si="0"/>
-        <v>671.44385439445261</v>
+        <v>672.90655870624732</v>
       </c>
       <c r="Q24" s="102">
         <f t="shared" si="0"/>
-        <v>664.40725400059785</v>
+        <v>665.8546294570175</v>
       </c>
       <c r="R24" s="102">
         <f t="shared" si="0"/>
-        <v>657.37065360674319</v>
+        <v>658.80270020778778</v>
       </c>
       <c r="S24" s="149">
         <f t="shared" si="0"/>
-        <v>664.77823066741882</v>
+        <v>666.22641427654787</v>
       </c>
       <c r="T24" s="102">
         <f t="shared" si="0"/>
-        <v>672.18580772809446</v>
+        <v>673.65012834530796</v>
       </c>
       <c r="U24" s="102">
         <f t="shared" si="0"/>
-        <v>679.59338478877009</v>
+        <v>681.07384241406805</v>
       </c>
       <c r="V24" s="102">
         <f t="shared" si="0"/>
-        <v>687.00096184944573</v>
+        <v>688.49755648282814</v>
       </c>
       <c r="W24" s="149">
         <f t="shared" si="0"/>
-        <v>696.38464559551505</v>
+        <v>697.90168207907755</v>
       </c>
       <c r="X24" s="102">
         <f t="shared" si="0"/>
-        <v>705.76832934158426</v>
+        <v>707.30580767532695</v>
       </c>
       <c r="Y24" s="102">
         <f t="shared" si="0"/>
-        <v>715.1520130876537</v>
+        <v>716.70993327157646</v>
       </c>
       <c r="Z24" s="102">
         <f t="shared" si="0"/>
-        <v>724.53569683372302</v>
+        <v>726.11405886782597</v>
       </c>
       <c r="AA24" s="149">
         <f t="shared" si="0"/>
-        <v>734.30032080973297</v>
+        <v>735.89995455181156</v>
       </c>
       <c r="AB24" s="95"/>
     </row>
@@ -30068,83 +30087,83 @@
       </c>
       <c r="H27" s="217">
         <f t="shared" si="3"/>
-        <v>-66.570250475374905</v>
+        <v>-65.076315500038618</v>
       </c>
       <c r="I27" s="217">
         <f t="shared" si="3"/>
-        <v>-86.402072732203806</v>
+        <v>-84.893229918680618</v>
       </c>
       <c r="J27" s="217">
         <f t="shared" si="3"/>
-        <v>-113.07723048222294</v>
+        <v>-111.56838766869976</v>
       </c>
       <c r="K27" s="150">
         <f t="shared" si="3"/>
-        <v>-105.05755462580441</v>
+        <v>-103.54871181228123</v>
       </c>
       <c r="L27" s="217">
         <f t="shared" si="3"/>
-        <v>-97.037878769385998</v>
+        <v>-95.52903595586281</v>
       </c>
       <c r="M27" s="239">
         <f t="shared" si="3"/>
-        <v>-89.018202912967581</v>
+        <v>-87.509360099444393</v>
       </c>
       <c r="N27" s="217">
         <f t="shared" si="3"/>
-        <v>-88.104872392241191</v>
+        <v>-86.611510369696362</v>
       </c>
       <c r="O27" s="150">
         <f t="shared" si="3"/>
-        <v>-87.200505717350779</v>
+        <v>-85.72247255018101</v>
       </c>
       <c r="P27" s="217">
         <f t="shared" si="3"/>
-        <v>-86.296139042460368</v>
+        <v>-84.833434730665658</v>
       </c>
       <c r="Q27" s="217">
         <f t="shared" si="3"/>
-        <v>-85.391772367569956</v>
+        <v>-83.944396911150307</v>
       </c>
       <c r="R27" s="217">
         <f t="shared" si="3"/>
-        <v>-84.487405692679545</v>
+        <v>-83.055359091634955</v>
       </c>
       <c r="S27" s="150">
         <f t="shared" si="3"/>
-        <v>-85.439451490421334</v>
+        <v>-83.991267881292288</v>
       </c>
       <c r="T27" s="217">
         <f t="shared" si="3"/>
-        <v>-86.391497288163123</v>
+        <v>-84.927176670949621</v>
       </c>
       <c r="U27" s="217">
         <f t="shared" si="3"/>
-        <v>-87.343543085905026</v>
+        <v>-85.863085460607067</v>
       </c>
       <c r="V27" s="217">
         <f t="shared" si="3"/>
-        <v>-88.295588883646928</v>
+        <v>-86.798994250264514</v>
       </c>
       <c r="W27" s="150">
         <f t="shared" si="3"/>
-        <v>-89.501610313408264</v>
+        <v>-87.984573829845772</v>
       </c>
       <c r="X27" s="217">
         <f t="shared" si="3"/>
-        <v>-90.707631743169713</v>
+        <v>-89.17015340942703</v>
       </c>
       <c r="Y27" s="217">
         <f t="shared" si="3"/>
-        <v>-91.913653172931049</v>
+        <v>-90.355732989008288</v>
       </c>
       <c r="Z27" s="217">
         <f t="shared" si="3"/>
-        <v>-93.119674602692498</v>
+        <v>-91.541312568589547</v>
       </c>
       <c r="AA27" s="150">
         <f t="shared" si="3"/>
-        <v>-94.374655704710335</v>
+        <v>-92.77502196263174</v>
       </c>
       <c r="AB27" s="244"/>
     </row>
@@ -30240,83 +30259,83 @@
       </c>
       <c r="H31" s="104">
         <f>main_nipas!M5/1000</f>
-        <v>831.25083502466373</v>
+        <v>833.18499999999995</v>
       </c>
       <c r="I31" s="104">
         <f>main_nipas!N5/1000</f>
-        <v>838.45784744285413</v>
+        <v>839.96669025637732</v>
       </c>
       <c r="J31" s="104">
         <f>main_nipas!O5/1000</f>
-        <v>839.18701967747904</v>
+        <v>840.69586249100234</v>
       </c>
       <c r="K31" s="149">
         <f>main_nipas!P5/1000</f>
-        <v>840.28624682117629</v>
+        <v>841.79508963469948</v>
       </c>
       <c r="L31" s="104">
         <f>main_nipas!Q5/1000</f>
-        <v>841.76287528420949</v>
+        <v>843.27171809773279</v>
       </c>
       <c r="M31" s="104">
         <f>L31*(1 + M33)</f>
-        <v>1023.5226902081812</v>
+        <v>1025.3573337888656</v>
       </c>
       <c r="N31" s="104">
         <f t="shared" ref="N31:AA31" si="4">M31*(1 + N33)</f>
-        <v>1195.7081538969867</v>
+        <v>1197.8514364152011</v>
       </c>
       <c r="O31" s="149">
         <f t="shared" si="4"/>
-        <v>1356.7203907437929</v>
+        <v>1359.1522844179385</v>
       </c>
       <c r="P31" s="104">
         <f t="shared" si="4"/>
-        <v>1515.0518092447514</v>
+        <v>1517.7675087625314</v>
       </c>
       <c r="Q31" s="104">
         <f t="shared" si="4"/>
-        <v>1681.8086568326592</v>
+        <v>1684.8232646041488</v>
       </c>
       <c r="R31" s="104">
         <f t="shared" si="4"/>
-        <v>1847.799556321753</v>
+        <v>1851.1116994005818</v>
       </c>
       <c r="S31" s="149">
         <f t="shared" si="4"/>
-        <v>1842.0571169992031</v>
+        <v>1845.3589668724767</v>
       </c>
       <c r="T31" s="104">
         <f t="shared" si="4"/>
-        <v>1840.9103662695375</v>
+        <v>1844.2101606154788</v>
       </c>
       <c r="U31" s="104">
         <f t="shared" si="4"/>
-        <v>1843.9763300833417</v>
+        <v>1847.2816201069884</v>
       </c>
       <c r="V31" s="104">
         <f t="shared" si="4"/>
-        <v>1853.1698786876568</v>
+        <v>1856.4916479599726</v>
       </c>
       <c r="W31" s="149">
         <f t="shared" si="4"/>
-        <v>1839.9127367130252</v>
+        <v>1843.2107428283005</v>
       </c>
       <c r="X31" s="104">
         <f t="shared" si="4"/>
-        <v>1825.88964663958</v>
+        <v>1829.1625166514441</v>
       </c>
       <c r="Y31" s="104">
         <f t="shared" si="4"/>
-        <v>1814.9303489613881</v>
+        <v>1818.1835746553231</v>
       </c>
       <c r="Z31" s="104">
         <f t="shared" si="4"/>
-        <v>1807.4178177278561</v>
+        <v>1810.6575773625291</v>
       </c>
       <c r="AA31" s="149">
         <f t="shared" si="4"/>
-        <v>1798.4197081672164</v>
+        <v>1801.6433388737262</v>
       </c>
       <c r="AB31" s="95"/>
     </row>
@@ -30513,83 +30532,83 @@
       </c>
       <c r="H34" s="217">
         <f t="shared" si="7"/>
-        <v>735.77787802470243</v>
+        <v>737.71204300003865</v>
       </c>
       <c r="I34" s="217">
         <f t="shared" si="7"/>
-        <v>767.5404900116622</v>
+        <v>769.04933282518539</v>
       </c>
       <c r="J34" s="217">
         <f t="shared" si="7"/>
-        <v>790.69510584290015</v>
+        <v>792.20394865642345</v>
       </c>
       <c r="K34" s="150">
         <f t="shared" si="7"/>
-        <v>777.3682130439189</v>
+        <v>778.87705585744209</v>
       </c>
       <c r="L34" s="239">
         <f t="shared" si="7"/>
-        <v>762.21917576132455</v>
+        <v>763.72801857484785</v>
       </c>
       <c r="M34" s="217">
         <f t="shared" si="7"/>
-        <v>926.80331267886709</v>
+        <v>928.63795625955152</v>
       </c>
       <c r="N34" s="217">
         <f t="shared" si="7"/>
-        <v>1082.7178416566987</v>
+        <v>1084.8611241749131</v>
       </c>
       <c r="O34" s="150">
         <f t="shared" si="7"/>
-        <v>1228.5149753392966</v>
+        <v>1230.9468690134422</v>
       </c>
       <c r="P34" s="150">
         <f t="shared" si="7"/>
-        <v>1371.8846187987742</v>
+        <v>1374.6003183165544</v>
       </c>
       <c r="Q34" s="150">
         <f t="shared" si="7"/>
-        <v>1522.8835172452002</v>
+        <v>1525.8981250166898</v>
       </c>
       <c r="R34" s="150">
         <f t="shared" si="7"/>
-        <v>1673.1888470564488</v>
+        <v>1676.5009901352776</v>
       </c>
       <c r="S34" s="150">
         <f t="shared" si="7"/>
-        <v>1667.9890485195799</v>
+        <v>1671.2908983928535</v>
       </c>
       <c r="T34" s="150">
         <f t="shared" si="7"/>
-        <v>1666.9506617937764</v>
+        <v>1670.2504561397177</v>
       </c>
       <c r="U34" s="150">
         <f t="shared" si="7"/>
-        <v>1669.7269025614423</v>
+        <v>1673.032192585089</v>
       </c>
       <c r="V34" s="150">
         <f t="shared" si="7"/>
-        <v>1678.0516924105277</v>
+        <v>1681.3734616828433</v>
       </c>
       <c r="W34" s="150">
         <f t="shared" si="7"/>
-        <v>1666.0473048026247</v>
+        <v>1669.3453109179</v>
       </c>
       <c r="X34" s="150">
         <f t="shared" si="7"/>
-        <v>1653.3493485595445</v>
+        <v>1656.6222185714087</v>
       </c>
       <c r="Y34" s="150">
         <f t="shared" si="7"/>
-        <v>1643.4256668571718</v>
+        <v>1646.6788925511069</v>
       </c>
       <c r="Z34" s="150">
         <f t="shared" si="7"/>
-        <v>1636.6230440130953</v>
+        <v>1639.8628036477683</v>
       </c>
       <c r="AA34" s="150">
         <f t="shared" si="7"/>
-        <v>1628.4752248895622</v>
+        <v>1631.698855596072</v>
       </c>
       <c r="AB34" s="244"/>
     </row>
@@ -30695,83 +30714,83 @@
       </c>
       <c r="H38" s="104">
         <f>main_nipas!M4/1000</f>
-        <v>883.13291447240113</v>
+        <v>880.10400000000004</v>
       </c>
       <c r="I38" s="104">
         <f>main_nipas!N4/1000</f>
-        <v>905.94784259575204</v>
+        <v>902.88183575393066</v>
       </c>
       <c r="J38" s="104">
         <f>main_nipas!O4/1000</f>
-        <v>929.04216445899181</v>
+        <v>925.93861101113123</v>
       </c>
       <c r="K38" s="149">
         <f t="shared" ref="K38:AA38" si="8">J38*(1+K40)</f>
-        <v>975.95103026212053</v>
+        <v>972.69077329985782</v>
       </c>
       <c r="L38" s="149">
         <f t="shared" si="8"/>
-        <v>1022.8598960652491</v>
+        <v>1019.4429355885843</v>
       </c>
       <c r="M38" s="149">
         <f t="shared" si="8"/>
-        <v>1069.7687618683776</v>
+        <v>1066.1950978773107</v>
       </c>
       <c r="N38" s="149">
         <f t="shared" si="8"/>
-        <v>1116.6776276715061</v>
+        <v>1112.947260166037</v>
       </c>
       <c r="O38" s="149">
         <f t="shared" si="8"/>
-        <v>1128.101730223234</v>
+        <v>1124.3331994198873</v>
       </c>
       <c r="P38" s="149">
         <f t="shared" si="8"/>
-        <v>1139.5258327749618</v>
+        <v>1135.7191386737375</v>
       </c>
       <c r="Q38" s="149">
         <f t="shared" si="8"/>
-        <v>1150.9499353266897</v>
+        <v>1147.1050779275877</v>
       </c>
       <c r="R38" s="149">
         <f t="shared" si="8"/>
-        <v>1162.3740378784175</v>
+        <v>1158.4910171814379</v>
       </c>
       <c r="S38" s="149">
         <f t="shared" si="8"/>
-        <v>1169.0137166437935</v>
+        <v>1165.108515470283</v>
       </c>
       <c r="T38" s="149">
         <f t="shared" si="8"/>
-        <v>1175.6533954091694</v>
+        <v>1171.7260137591281</v>
       </c>
       <c r="U38" s="149">
         <f t="shared" si="8"/>
-        <v>1182.2930741745452</v>
+        <v>1178.343512047973</v>
       </c>
       <c r="V38" s="149">
         <f t="shared" si="8"/>
-        <v>1188.9327529399211</v>
+        <v>1184.9610103368179</v>
       </c>
       <c r="W38" s="149">
         <f t="shared" si="8"/>
-        <v>1223.7968031773141</v>
+        <v>1219.7085939083695</v>
       </c>
       <c r="X38" s="149">
         <f t="shared" si="8"/>
-        <v>1258.660853414706</v>
+        <v>1254.4561774799199</v>
       </c>
       <c r="Y38" s="149">
         <f t="shared" si="8"/>
-        <v>1293.5249036520981</v>
+        <v>1289.2037610514706</v>
       </c>
       <c r="Z38" s="149">
         <f t="shared" si="8"/>
-        <v>1328.38895388949</v>
+        <v>1323.951344623021</v>
       </c>
       <c r="AA38" s="149">
         <f t="shared" si="8"/>
-        <v>1351.8905713062136</v>
+        <v>1347.3744526581963</v>
       </c>
       <c r="AB38" s="95"/>
     </row>
@@ -30974,83 +30993,83 @@
       </c>
       <c r="H41" s="217">
         <f t="shared" si="11"/>
-        <v>66.012511731550148</v>
+        <v>62.983597259149064</v>
       </c>
       <c r="I41" s="217">
         <f t="shared" si="11"/>
-        <v>101.61723848447548</v>
+        <v>98.551231642654102</v>
       </c>
       <c r="J41" s="239">
         <f t="shared" si="11"/>
-        <v>137.50135897728978</v>
+        <v>134.39780552942921</v>
       </c>
       <c r="K41" s="150">
         <f t="shared" si="11"/>
-        <v>144.44402858127864</v>
+        <v>141.18377161901594</v>
       </c>
       <c r="L41" s="217">
         <f t="shared" si="11"/>
-        <v>151.38669818526751</v>
+        <v>147.96973770860268</v>
       </c>
       <c r="M41" s="217">
         <f t="shared" si="11"/>
-        <v>158.32936778925637</v>
+        <v>154.75570379818942</v>
       </c>
       <c r="N41" s="217">
         <f t="shared" si="11"/>
-        <v>165.27203739324511</v>
+        <v>161.54166988777604</v>
       </c>
       <c r="O41" s="150">
         <f t="shared" si="11"/>
-        <v>166.96284291968027</v>
+        <v>163.19431211633355</v>
       </c>
       <c r="P41" s="217">
         <f t="shared" si="11"/>
-        <v>168.65364844611543</v>
+        <v>164.84695434489106</v>
       </c>
       <c r="Q41" s="217">
         <f t="shared" si="11"/>
-        <v>170.34445397255058</v>
+        <v>166.49959657344857</v>
       </c>
       <c r="R41" s="217">
         <f t="shared" si="11"/>
-        <v>172.03525949898574</v>
+        <v>168.15223880200608</v>
       </c>
       <c r="S41" s="150">
         <f t="shared" si="11"/>
-        <v>173.01795424453962</v>
+        <v>169.11275307102915</v>
       </c>
       <c r="T41" s="217">
         <f t="shared" si="11"/>
-        <v>174.0006489900934</v>
+        <v>170.0732673400521</v>
       </c>
       <c r="U41" s="217">
         <f t="shared" si="11"/>
-        <v>174.98334373564717</v>
+        <v>171.03378160907505</v>
       </c>
       <c r="V41" s="217">
         <f t="shared" si="11"/>
-        <v>175.96603848120105</v>
+        <v>171.99429587809789</v>
       </c>
       <c r="W41" s="150">
         <f t="shared" si="11"/>
-        <v>181.12603494905306</v>
+        <v>177.03782568010843</v>
       </c>
       <c r="X41" s="217">
         <f t="shared" si="11"/>
-        <v>186.28603141690496</v>
+        <v>182.08135548211885</v>
       </c>
       <c r="Y41" s="217">
         <f t="shared" si="11"/>
-        <v>191.44602788475709</v>
+        <v>187.1248852841295</v>
       </c>
       <c r="Z41" s="217">
         <f t="shared" si="11"/>
-        <v>196.60602435260898</v>
+        <v>192.16841508613993</v>
       </c>
       <c r="AA41" s="150">
         <f t="shared" si="11"/>
-        <v>200.08434262123751</v>
+        <v>195.56822397322026</v>
       </c>
       <c r="AB41" s="244"/>
     </row>
@@ -31149,83 +31168,83 @@
       </c>
       <c r="H45" s="102">
         <f>main_nipas!M3/1000</f>
-        <v>3270.4567169724014</v>
+        <v>5166.9120000000003</v>
       </c>
       <c r="I45" s="102">
         <f>main_nipas!N3/1000</f>
-        <v>2708.7967165770019</v>
+        <v>2705.7307097351809</v>
       </c>
       <c r="J45" s="102">
         <f>main_nipas!O3/1000</f>
-        <v>2611.5096718853824</v>
+        <v>2608.4061184375223</v>
       </c>
       <c r="K45" s="263">
         <f>main_nipas!P3/1000</f>
-        <v>2678.4659441347549</v>
+        <v>2675.2609058893258</v>
       </c>
       <c r="L45" s="104">
         <f>K45*(1+L47)</f>
-        <v>2705.5862740878774</v>
+        <v>2702.3487837984276</v>
       </c>
       <c r="M45" s="104">
         <f t="shared" ref="M45:AA45" si="12">L45*(1+M47)</f>
-        <v>2704.7609300180629</v>
+        <v>2701.5244273309813</v>
       </c>
       <c r="N45" s="104">
         <f t="shared" si="12"/>
-        <v>2665.2397915655642</v>
+        <v>2662.0505796646585</v>
       </c>
       <c r="O45" s="104">
         <f t="shared" si="12"/>
-        <v>2668.2319318700488</v>
+        <v>2665.0391395898096</v>
       </c>
       <c r="P45" s="104">
         <f t="shared" si="12"/>
-        <v>2672.8394922228958</v>
+        <v>2669.6411865601995</v>
       </c>
       <c r="Q45" s="104">
         <f t="shared" si="12"/>
-        <v>2678.5518369371657</v>
+        <v>2675.3466959128623</v>
       </c>
       <c r="R45" s="104">
         <f t="shared" si="12"/>
-        <v>2687.4296130442599</v>
+        <v>2684.2138489198119</v>
       </c>
       <c r="S45" s="104">
         <f t="shared" si="12"/>
-        <v>2714.5941259926144</v>
+        <v>2711.3458569550057</v>
       </c>
       <c r="T45" s="104">
         <f t="shared" si="12"/>
-        <v>2740.6959129860525</v>
+        <v>2737.4164106875651</v>
       </c>
       <c r="U45" s="104">
         <f t="shared" si="12"/>
-        <v>2761.8426201376674</v>
+        <v>2758.5378138007491</v>
       </c>
       <c r="V45" s="104">
         <f t="shared" si="12"/>
-        <v>2779.9520153329941</v>
+        <v>2776.6255393891392</v>
       </c>
       <c r="W45" s="104">
         <f t="shared" si="12"/>
-        <v>2844.112631221165</v>
+        <v>2840.7093810221727</v>
       </c>
       <c r="X45" s="104">
         <f t="shared" si="12"/>
-        <v>2898.2756387060926</v>
+        <v>2894.8075773375363</v>
       </c>
       <c r="Y45" s="104">
         <f t="shared" si="12"/>
-        <v>2943.5821136326804</v>
+        <v>2940.0598387747859</v>
       </c>
       <c r="Z45" s="104">
         <f t="shared" si="12"/>
-        <v>2979.0789650047236</v>
+        <v>2975.5142148013842</v>
       </c>
       <c r="AA45" s="104">
         <f t="shared" si="12"/>
-        <v>2998.2027061270114</v>
+        <v>2994.61507255574</v>
       </c>
       <c r="AB45" s="95"/>
     </row>
@@ -31425,83 +31444,83 @@
       </c>
       <c r="H48" s="217">
         <f t="shared" si="30"/>
-        <v>1201.8936191406992</v>
+        <v>3098.3489021682981</v>
       </c>
       <c r="I48" s="217">
         <f t="shared" si="30"/>
-        <v>854.05661636033483</v>
+        <v>850.99060951851379</v>
       </c>
       <c r="J48" s="217">
         <f t="shared" si="30"/>
-        <v>906.03001879956446</v>
+        <v>902.92646535170434</v>
       </c>
       <c r="K48" s="264">
         <f t="shared" si="30"/>
-        <v>926.50683572140088</v>
+        <v>923.30179747597185</v>
       </c>
       <c r="L48" s="217">
         <f t="shared" si="30"/>
-        <v>935.88801570004148</v>
+        <v>932.65052541059163</v>
       </c>
       <c r="M48" s="217">
         <f t="shared" si="30"/>
-        <v>935.60252133929384</v>
+        <v>932.36601865221223</v>
       </c>
       <c r="N48" s="217">
         <f t="shared" si="30"/>
-        <v>921.93178379942924</v>
+        <v>918.74257189852347</v>
       </c>
       <c r="O48" s="150">
         <f t="shared" si="30"/>
-        <v>922.96679357866992</v>
+        <v>919.77400129843068</v>
       </c>
       <c r="P48" s="217">
         <f t="shared" si="30"/>
-        <v>924.56059251132388</v>
+        <v>921.36228684862749</v>
       </c>
       <c r="Q48" s="217">
         <f t="shared" si="30"/>
-        <v>926.53654685838478</v>
+        <v>923.33140583408135</v>
       </c>
       <c r="R48" s="217">
         <f t="shared" si="30"/>
-        <v>929.6074540197169</v>
+        <v>926.39168989526888</v>
       </c>
       <c r="S48" s="150">
         <f t="shared" si="30"/>
-        <v>939.00391731648051</v>
+        <v>935.75564827887183</v>
       </c>
       <c r="T48" s="217">
         <f t="shared" si="30"/>
-        <v>948.03277360151947</v>
+        <v>944.75327130303208</v>
       </c>
       <c r="U48" s="217">
         <f t="shared" si="30"/>
-        <v>955.34762065860946</v>
+        <v>952.04281432169114</v>
       </c>
       <c r="V48" s="217">
         <f t="shared" si="30"/>
-        <v>961.61183263262797</v>
+        <v>958.28535668877316</v>
       </c>
       <c r="W48" s="150">
         <f t="shared" si="30"/>
-        <v>983.80559967852105</v>
+        <v>980.40234947952877</v>
       </c>
       <c r="X48" s="217">
         <f t="shared" si="30"/>
-        <v>1002.5410989249847</v>
+        <v>999.07303755642829</v>
       </c>
       <c r="Y48" s="217">
         <f t="shared" si="30"/>
-        <v>1018.2130393556045</v>
+        <v>1014.69076449771</v>
       </c>
       <c r="Z48" s="217">
         <f t="shared" si="30"/>
-        <v>1030.4917377332347</v>
+        <v>1026.9269875298953</v>
       </c>
       <c r="AA48" s="150">
         <f t="shared" si="30"/>
-        <v>1037.1068216073324</v>
+        <v>1033.519188036061</v>
       </c>
       <c r="AB48" s="244"/>
     </row>
@@ -31699,10 +31718,10 @@
         <v>44286</v>
       </c>
       <c r="B4" s="259">
-        <v>-66.570250475374905</v>
+        <v>-65.076315500038618</v>
       </c>
       <c r="C4" s="259">
-        <v>735.77787802470243</v>
+        <v>737.71204300003865</v>
       </c>
       <c r="D4" s="259">
         <v>-27.260999999999967</v>
@@ -31711,13 +31730,13 @@
         <v>-1.9565613146719585</v>
       </c>
       <c r="F4" s="259">
-        <v>66.012511731550148</v>
+        <v>62.983597259149064</v>
       </c>
       <c r="G4" s="259">
-        <v>1201.8936191406992</v>
+        <v>3098.3489021682981</v>
       </c>
       <c r="H4" s="259">
-        <v>450.95025000000004</v>
+        <v>2.5539999999999736</v>
       </c>
       <c r="I4" s="259">
         <v>61.90180399999997</v>
@@ -31728,10 +31747,10 @@
         <v>44377</v>
       </c>
       <c r="B5" s="259">
-        <v>-86.402072732203806</v>
+        <v>-84.893229918680618</v>
       </c>
       <c r="C5" s="259">
-        <v>767.5404900116622</v>
+        <v>769.04933282518539</v>
       </c>
       <c r="D5" s="259">
         <v>-27.540460525652634</v>
@@ -31740,10 +31759,10 @@
         <v>-1.9766185999319106</v>
       </c>
       <c r="F5" s="259">
-        <v>101.61723848447548</v>
+        <v>98.551231642654102</v>
       </c>
       <c r="G5" s="259">
-        <v>854.05661636033483</v>
+        <v>850.99060951851379</v>
       </c>
       <c r="H5" s="259">
         <v>443.19820174709946</v>
@@ -31757,10 +31776,10 @@
         <v>44469</v>
       </c>
       <c r="B6" s="259">
-        <v>-113.07723048222294</v>
+        <v>-111.56838766869976</v>
       </c>
       <c r="C6" s="259">
-        <v>790.69510584290015</v>
+        <v>792.20394865642345</v>
       </c>
       <c r="D6" s="259">
         <v>-27.939190811361868</v>
@@ -31769,10 +31788,10 @@
         <v>-2.0052360480081433</v>
       </c>
       <c r="F6" s="259">
-        <v>137.50135897728978</v>
+        <v>134.39780552942921</v>
       </c>
       <c r="G6" s="259">
-        <v>906.03001879956446</v>
+        <v>902.92646535170434</v>
       </c>
       <c r="H6" s="259">
         <v>-298.69716490110829</v>
@@ -31786,10 +31805,10 @@
         <v>44561</v>
       </c>
       <c r="B7" s="259">
-        <v>-105.05755462580441</v>
+        <v>-103.54871181228123</v>
       </c>
       <c r="C7" s="259">
-        <v>777.3682130439189</v>
+        <v>778.87705585744209</v>
       </c>
       <c r="D7" s="259">
         <v>-28.310598840321973</v>
@@ -31798,10 +31817,10 @@
         <v>-2.0318925382844242</v>
       </c>
       <c r="F7" s="259">
-        <v>144.44402858127864</v>
+        <v>141.18377161901594</v>
       </c>
       <c r="G7" s="259">
-        <v>926.50683572140088</v>
+        <v>923.30179747597185</v>
       </c>
       <c r="H7" s="259">
         <v>-305.33172438316558</v>
@@ -31815,10 +31834,10 @@
         <v>44651</v>
       </c>
       <c r="B8" s="259">
-        <v>-97.037878769385998</v>
+        <v>-95.52903595586281</v>
       </c>
       <c r="C8" s="259">
-        <v>762.21917576132455</v>
+        <v>763.72801857484785</v>
       </c>
       <c r="D8" s="259">
         <v>0</v>
@@ -31827,10 +31846,10 @@
         <v>0</v>
       </c>
       <c r="F8" s="259">
-        <v>151.38669818526751</v>
+        <v>147.96973770860268</v>
       </c>
       <c r="G8" s="259">
-        <v>935.88801570004148</v>
+        <v>932.65052541059163</v>
       </c>
       <c r="H8" s="259">
         <v>-332.74230778657443</v>
@@ -31844,10 +31863,10 @@
         <v>44742</v>
       </c>
       <c r="B9" s="259">
-        <v>-89.018202912967581</v>
+        <v>-87.509360099444393</v>
       </c>
       <c r="C9" s="259">
-        <v>926.80331267886709</v>
+        <v>928.63795625955152</v>
       </c>
       <c r="D9" s="259">
         <v>0</v>
@@ -31856,10 +31875,10 @@
         <v>0</v>
       </c>
       <c r="F9" s="259">
-        <v>158.32936778925637</v>
+        <v>154.75570379818942</v>
       </c>
       <c r="G9" s="259">
-        <v>935.60252133929384</v>
+        <v>932.36601865221223</v>
       </c>
       <c r="H9" s="259">
         <v>-334.34747023032236</v>
@@ -31873,10 +31892,10 @@
         <v>44834</v>
       </c>
       <c r="B10" s="259">
-        <v>-88.104872392241191</v>
+        <v>-86.611510369696362</v>
       </c>
       <c r="C10" s="259">
-        <v>1082.7178416566987</v>
+        <v>1084.8611241749131</v>
       </c>
       <c r="D10" s="259">
         <v>0</v>
@@ -31885,10 +31904,10 @@
         <v>0</v>
       </c>
       <c r="F10" s="259">
-        <v>165.27203739324511</v>
+        <v>161.54166988777604</v>
       </c>
       <c r="G10" s="259">
-        <v>921.93178379942924</v>
+        <v>918.74257189852347</v>
       </c>
       <c r="H10" s="259">
         <v>-335.92752585795336</v>
@@ -31902,10 +31921,10 @@
         <v>44926</v>
       </c>
       <c r="B11" s="259">
-        <v>-87.200505717350779</v>
+        <v>-85.72247255018101</v>
       </c>
       <c r="C11" s="259">
-        <v>1228.5149753392966</v>
+        <v>1230.9468690134422</v>
       </c>
       <c r="D11" s="259">
         <v>0</v>
@@ -31914,10 +31933,10 @@
         <v>0</v>
       </c>
       <c r="F11" s="259">
-        <v>166.96284291968027</v>
+        <v>163.19431211633355</v>
       </c>
       <c r="G11" s="259">
-        <v>922.96679357866992</v>
+        <v>919.77400129843068</v>
       </c>
       <c r="H11" s="259">
         <v>-337.49753875913746</v>
@@ -31931,10 +31950,10 @@
         <v>45016</v>
       </c>
       <c r="B12" s="259">
-        <v>-86.296139042460368</v>
+        <v>-84.833434730665658</v>
       </c>
       <c r="C12" s="259">
-        <v>1371.8846187987742</v>
+        <v>1374.6003183165544</v>
       </c>
       <c r="D12" s="259">
         <v>0</v>
@@ -31943,10 +31962,10 @@
         <v>0</v>
       </c>
       <c r="F12" s="259">
-        <v>168.65364844611543</v>
+        <v>164.84695434489106</v>
       </c>
       <c r="G12" s="259">
-        <v>924.56059251132388</v>
+        <v>921.36228684862749</v>
       </c>
       <c r="H12" s="259">
         <v>-339.06420408483939</v>
@@ -31960,10 +31979,10 @@
         <v>45107</v>
       </c>
       <c r="B13" s="259">
-        <v>-85.391772367569956</v>
+        <v>-83.944396911150307</v>
       </c>
       <c r="C13" s="259">
-        <v>1522.8835172452002</v>
+        <v>1525.8981250166898</v>
       </c>
       <c r="D13" s="259">
         <v>0</v>
@@ -31972,10 +31991,10 @@
         <v>0</v>
       </c>
       <c r="F13" s="259">
-        <v>170.34445397255058</v>
+        <v>166.49959657344857</v>
       </c>
       <c r="G13" s="259">
-        <v>926.53654685838478</v>
+        <v>923.33140583408135</v>
       </c>
       <c r="H13" s="259">
         <v>-340.63589077376469</v>
@@ -31989,10 +32008,10 @@
         <v>45199</v>
       </c>
       <c r="B14" s="259">
-        <v>-84.487405692679545</v>
+        <v>-83.055359091634955</v>
       </c>
       <c r="C14" s="259">
-        <v>1673.1888470564488</v>
+        <v>1676.5009901352776</v>
       </c>
       <c r="D14" s="259">
         <v>0</v>
@@ -32001,10 +32020,10 @@
         <v>0</v>
       </c>
       <c r="F14" s="259">
-        <v>172.03525949898574</v>
+        <v>168.15223880200608</v>
       </c>
       <c r="G14" s="259">
-        <v>929.6074540197169</v>
+        <v>926.39168989526888</v>
       </c>
       <c r="H14" s="259">
         <v>-342.22264155236019</v>
@@ -32018,10 +32037,10 @@
         <v>45291</v>
       </c>
       <c r="B15" s="259">
-        <v>-85.439451490421334</v>
+        <v>-83.991267881292288</v>
       </c>
       <c r="C15" s="259">
-        <v>1667.9890485195799</v>
+        <v>1671.2908983928535</v>
       </c>
       <c r="D15" s="259">
         <v>0</v>
@@ -32030,10 +32049,10 @@
         <v>0</v>
       </c>
       <c r="F15" s="259">
-        <v>173.01795424453962</v>
+        <v>169.11275307102915</v>
       </c>
       <c r="G15" s="259">
-        <v>939.00391731648051</v>
+        <v>935.75564827887183</v>
       </c>
       <c r="H15" s="259">
         <v>-343.82445642062589</v>
@@ -32047,10 +32066,10 @@
         <v>45382</v>
       </c>
       <c r="B16" s="259">
-        <v>-86.391497288163123</v>
+        <v>-84.927176670949621</v>
       </c>
       <c r="C16" s="259">
-        <v>1666.9506617937764</v>
+        <v>1670.2504561397177</v>
       </c>
       <c r="D16" s="259">
         <v>0</v>
@@ -32059,10 +32078,10 @@
         <v>0</v>
       </c>
       <c r="F16" s="259">
-        <v>174.0006489900934</v>
+        <v>170.0732673400521</v>
       </c>
       <c r="G16" s="259">
-        <v>948.03277360151947</v>
+        <v>944.75327130303208</v>
       </c>
       <c r="H16" s="259">
         <v>-345.43631401533838</v>
@@ -32076,10 +32095,10 @@
         <v>45473</v>
       </c>
       <c r="B17" s="259">
-        <v>-87.343543085905026</v>
+        <v>-85.863085460607067</v>
       </c>
       <c r="C17" s="259">
-        <v>1669.7269025614423</v>
+        <v>1673.032192585089</v>
       </c>
       <c r="D17" s="259">
         <v>0</v>
@@ -32088,10 +32107,10 @@
         <v>0</v>
       </c>
       <c r="F17" s="259">
-        <v>174.98334373564717</v>
+        <v>171.03378160907505</v>
       </c>
       <c r="G17" s="259">
-        <v>955.34762065860946</v>
+        <v>952.04281432169114</v>
       </c>
       <c r="H17" s="259">
         <v>-347.04482403456859</v>
@@ -32105,10 +32124,10 @@
         <v>45565</v>
       </c>
       <c r="B18" s="259">
-        <v>-88.295588883646928</v>
+        <v>-86.798994250264514</v>
       </c>
       <c r="C18" s="259">
-        <v>1678.0516924105277</v>
+        <v>1681.3734616828433</v>
       </c>
       <c r="D18" s="259">
         <v>0</v>
@@ -32117,10 +32136,10 @@
         <v>0</v>
       </c>
       <c r="F18" s="259">
-        <v>175.96603848120105</v>
+        <v>171.99429587809789</v>
       </c>
       <c r="G18" s="259">
-        <v>961.61183263262797</v>
+        <v>958.28535668877316</v>
       </c>
       <c r="H18" s="259">
         <v>-348.65835541702234</v>
@@ -32134,10 +32153,10 @@
         <v>45657</v>
       </c>
       <c r="B19" s="259">
-        <v>-89.501610313408264</v>
+        <v>-87.984573829845772</v>
       </c>
       <c r="C19" s="259">
-        <v>1666.0473048026247</v>
+        <v>1669.3453109179</v>
       </c>
       <c r="D19" s="259">
         <v>0</v>
@@ -32146,10 +32165,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="259">
-        <v>181.12603494905306</v>
+        <v>177.03782568010843</v>
       </c>
       <c r="G19" s="259">
-        <v>983.80559967852105</v>
+        <v>980.40234947952877</v>
       </c>
       <c r="H19" s="259">
         <v>-350.2752343749583</v>
@@ -32163,10 +32182,10 @@
         <v>45747</v>
       </c>
       <c r="B20" s="259">
-        <v>-90.707631743169713</v>
+        <v>-89.17015340942703</v>
       </c>
       <c r="C20" s="259">
-        <v>1653.3493485595445</v>
+        <v>1656.6222185714087</v>
       </c>
       <c r="D20" s="259">
         <v>0</v>
@@ -32175,10 +32194,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="259">
-        <v>186.28603141690496</v>
+        <v>182.08135548211885</v>
       </c>
       <c r="G20" s="259">
-        <v>1002.5410989249847</v>
+        <v>999.07303755642829</v>
       </c>
       <c r="H20" s="259">
         <v>-351.89043954515301</v>
@@ -32192,10 +32211,10 @@
         <v>45838</v>
       </c>
       <c r="B21" s="259">
-        <v>-91.913653172931049</v>
+        <v>-90.355732989008288</v>
       </c>
       <c r="C21" s="259">
-        <v>1643.4256668571718</v>
+        <v>1646.6788925511069</v>
       </c>
       <c r="D21" s="259">
         <v>0</v>
@@ -32204,10 +32223,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="259">
-        <v>191.44602788475709</v>
+        <v>187.1248852841295</v>
       </c>
       <c r="G21" s="259">
-        <v>1018.2130393556045</v>
+        <v>1014.69076449771</v>
       </c>
       <c r="H21" s="259">
         <v>-353.48555926245427</v>
@@ -32221,10 +32240,10 @@
         <v>45930</v>
       </c>
       <c r="B22" s="259">
-        <v>-93.119674602692498</v>
+        <v>-91.541312568589547</v>
       </c>
       <c r="C22" s="259">
-        <v>1636.6230440130953</v>
+        <v>1639.8628036477683</v>
       </c>
       <c r="D22" s="259">
         <v>0</v>
@@ -32233,10 +32252,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="259">
-        <v>196.60602435260898</v>
+        <v>192.16841508613993</v>
       </c>
       <c r="G22" s="259">
-        <v>1030.4917377332347</v>
+        <v>1026.9269875298953</v>
       </c>
       <c r="H22" s="259">
         <v>-355.06896246556749</v>
@@ -32250,10 +32269,10 @@
         <v>46022</v>
       </c>
       <c r="B23" s="259">
-        <v>-94.374655704710335</v>
+        <v>-92.77502196263174</v>
       </c>
       <c r="C23" s="259">
-        <v>1628.4752248895622</v>
+        <v>1631.698855596072</v>
       </c>
       <c r="D23" s="259">
         <v>0</v>
@@ -32262,10 +32281,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="259">
-        <v>200.08434262123751</v>
+        <v>195.56822397322026</v>
       </c>
       <c r="G23" s="259">
-        <v>1037.1068216073324</v>
+        <v>1033.519188036061</v>
       </c>
       <c r="H23" s="259">
         <v>-356.64064915449279</v>
@@ -32283,7 +32302,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCD553-49A9-442A-A3CE-215FCFDE89C7}">
   <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
@@ -32323,7 +32342,7 @@
       <c r="J1" s="297" t="s">
         <v>367</v>
       </c>
-      <c r="K1" s="394">
+      <c r="K1" s="350">
         <v>44286</v>
       </c>
     </row>
@@ -33312,18 +33331,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -33544,26 +33563,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{12E610D1-229D-4CC6-A1C9-48F28FFDA50F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{170E13C6-C717-4C73-9EC5-EE5855C1B9D0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="cac5d118-ba7b-4807-b700-df6f95cfff50"/>
+    <ds:schemaRef ds:uri="66951ee6-cd93-49c7-9437-e871b2a117d6"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
